--- a/raw_data/20200818_saline/20200818_Sensor2_Test_7.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor2_Test_7.xlsx
@@ -1,703 +1,1119 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2E173F5-93D9-4F30-8878-EFE6FE893E1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>5774.849145</v>
+        <v>5774.8491450000001</v>
       </c>
       <c r="B2" s="1">
         <v>1.604125</v>
       </c>
       <c r="C2" s="1">
-        <v>1246.690000</v>
+        <v>1246.69</v>
       </c>
       <c r="D2" s="1">
-        <v>-307.557000</v>
+        <v>-307.55700000000002</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>5785.226476</v>
+        <v>5785.2264759999998</v>
       </c>
       <c r="G2" s="1">
-        <v>1.607007</v>
+        <v>1.6070070000000001</v>
       </c>
       <c r="H2" s="1">
-        <v>1272.280000</v>
+        <v>1272.28</v>
       </c>
       <c r="I2" s="1">
-        <v>-265.531000</v>
+        <v>-265.53100000000001</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>5795.386989</v>
+        <v>5795.3869889999996</v>
       </c>
       <c r="L2" s="1">
-        <v>1.609830</v>
+        <v>1.6098300000000001</v>
       </c>
       <c r="M2" s="1">
-        <v>1306.550000</v>
+        <v>1306.55</v>
       </c>
       <c r="N2" s="1">
-        <v>-202.508000</v>
+        <v>-202.50800000000001</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>5805.875888</v>
+        <v>5805.8758879999996</v>
       </c>
       <c r="Q2" s="1">
         <v>1.612743</v>
       </c>
       <c r="R2" s="1">
-        <v>1318.050000</v>
+        <v>1318.05</v>
       </c>
       <c r="S2" s="1">
-        <v>-184.657000</v>
+        <v>-184.65700000000001</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
         <v>5816.472417</v>
       </c>
       <c r="V2" s="1">
-        <v>1.615687</v>
+        <v>1.6156870000000001</v>
       </c>
       <c r="W2" s="1">
-        <v>1331.010000</v>
+        <v>1331.01</v>
       </c>
       <c r="X2" s="1">
-        <v>-171.075000</v>
+        <v>-171.07499999999999</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>5826.570963</v>
+        <v>5826.5709630000001</v>
       </c>
       <c r="AA2" s="1">
         <v>1.618492</v>
       </c>
       <c r="AB2" s="1">
-        <v>1348.040000</v>
+        <v>1348.04</v>
       </c>
       <c r="AC2" s="1">
-        <v>-169.230000</v>
+        <v>-169.23</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>5837.148150</v>
+        <v>5837.14815</v>
       </c>
       <c r="AF2" s="1">
-        <v>1.621430</v>
+        <v>1.6214299999999999</v>
       </c>
       <c r="AG2" s="1">
-        <v>1360.830000</v>
+        <v>1360.83</v>
       </c>
       <c r="AH2" s="1">
-        <v>-179.053000</v>
+        <v>-179.053</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>5847.913330</v>
+        <v>5847.9133300000003</v>
       </c>
       <c r="AK2" s="1">
-        <v>1.624420</v>
+        <v>1.62442</v>
       </c>
       <c r="AL2" s="1">
-        <v>1381.320000</v>
+        <v>1381.32</v>
       </c>
       <c r="AM2" s="1">
-        <v>-209.312000</v>
+        <v>-209.31200000000001</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>5858.789134</v>
+        <v>5858.7891339999996</v>
       </c>
       <c r="AP2" s="1">
-        <v>1.627441</v>
+        <v>1.6274409999999999</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1402.850000</v>
+        <v>1402.85</v>
       </c>
       <c r="AR2" s="1">
-        <v>-253.621000</v>
+        <v>-253.62100000000001</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>5869.868731</v>
+        <v>5869.8687309999996</v>
       </c>
       <c r="AU2" s="1">
-        <v>1.630519</v>
+        <v>1.6305190000000001</v>
       </c>
       <c r="AV2" s="1">
-        <v>1427.200000</v>
+        <v>1427.2</v>
       </c>
       <c r="AW2" s="1">
-        <v>-314.176000</v>
+        <v>-314.17599999999999</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>5881.070380</v>
+        <v>5881.0703800000001</v>
       </c>
       <c r="AZ2" s="1">
-        <v>1.633631</v>
+        <v>1.6336310000000001</v>
       </c>
       <c r="BA2" s="1">
-        <v>1446.360000</v>
+        <v>1446.36</v>
       </c>
       <c r="BB2" s="1">
-        <v>-366.803000</v>
+        <v>-366.803</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>5892.358333</v>
+        <v>5892.3583330000001</v>
       </c>
       <c r="BE2" s="1">
-        <v>1.636766</v>
+        <v>1.6367659999999999</v>
       </c>
       <c r="BF2" s="1">
-        <v>1530.530000</v>
+        <v>1530.53</v>
       </c>
       <c r="BG2" s="1">
-        <v>-618.348000</v>
+        <v>-618.34799999999996</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>5903.405727</v>
+        <v>5903.4057270000003</v>
       </c>
       <c r="BJ2" s="1">
-        <v>1.639835</v>
+        <v>1.6398349999999999</v>
       </c>
       <c r="BK2" s="1">
-        <v>1683.050000</v>
+        <v>1683.05</v>
       </c>
       <c r="BL2" s="1">
-        <v>-1071.130000</v>
+        <v>-1071.1300000000001</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>5913.509233</v>
+        <v>5913.5092329999998</v>
       </c>
       <c r="BO2" s="1">
         <v>1.642641</v>
       </c>
       <c r="BP2" s="1">
-        <v>1975.810000</v>
+        <v>1975.81</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-1859.400000</v>
+        <v>-1859.4</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>5923.833491</v>
+        <v>5923.8334910000003</v>
       </c>
       <c r="BT2" s="1">
-        <v>1.645509</v>
+        <v>1.6455090000000001</v>
       </c>
       <c r="BU2" s="1">
-        <v>2360.630000</v>
+        <v>2360.63</v>
       </c>
       <c r="BV2" s="1">
-        <v>-2772.510000</v>
+        <v>-2772.51</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
         <v>5934.576309</v>
@@ -706,332 +1122,332 @@
         <v>1.648493</v>
       </c>
       <c r="BZ2" s="1">
-        <v>2848.880000</v>
+        <v>2848.88</v>
       </c>
       <c r="CA2" s="1">
-        <v>-3774.210000</v>
+        <v>-3774.21</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>5945.471441</v>
+        <v>5945.4714409999997</v>
       </c>
       <c r="CD2" s="1">
-        <v>1.651520</v>
+        <v>1.6515200000000001</v>
       </c>
       <c r="CE2" s="1">
-        <v>4300.480000</v>
+        <v>4300.4799999999996</v>
       </c>
       <c r="CF2" s="1">
-        <v>-6202.970000</v>
+        <v>-6202.97</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>5775.231063</v>
+        <v>5775.2310630000002</v>
       </c>
       <c r="B3" s="1">
         <v>1.604231</v>
       </c>
       <c r="C3" s="1">
-        <v>1246.230000</v>
+        <v>1246.23</v>
       </c>
       <c r="D3" s="1">
-        <v>-307.923000</v>
+        <v>-307.923</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>5785.639146</v>
+        <v>5785.6391460000004</v>
       </c>
       <c r="G3" s="1">
-        <v>1.607122</v>
+        <v>1.6071219999999999</v>
       </c>
       <c r="H3" s="1">
-        <v>1271.410000</v>
+        <v>1271.4100000000001</v>
       </c>
       <c r="I3" s="1">
-        <v>-265.379000</v>
+        <v>-265.37900000000002</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>5795.755517</v>
+        <v>5795.7555169999996</v>
       </c>
       <c r="L3" s="1">
-        <v>1.609932</v>
+        <v>1.6099319999999999</v>
       </c>
       <c r="M3" s="1">
-        <v>1306.690000</v>
+        <v>1306.69</v>
       </c>
       <c r="N3" s="1">
-        <v>-202.626000</v>
+        <v>-202.626</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>5806.258798</v>
+        <v>5806.2587979999998</v>
       </c>
       <c r="Q3" s="1">
-        <v>1.612850</v>
+        <v>1.6128499999999999</v>
       </c>
       <c r="R3" s="1">
-        <v>1318.140000</v>
+        <v>1318.14</v>
       </c>
       <c r="S3" s="1">
-        <v>-184.527000</v>
+        <v>-184.52699999999999</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>5816.849394</v>
+        <v>5816.8493939999998</v>
       </c>
       <c r="V3" s="1">
         <v>1.615791</v>
       </c>
       <c r="W3" s="1">
-        <v>1330.820000</v>
+        <v>1330.82</v>
       </c>
       <c r="X3" s="1">
-        <v>-171.046000</v>
+        <v>-171.04599999999999</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>5827.309011</v>
+        <v>5827.3090110000003</v>
       </c>
       <c r="AA3" s="1">
-        <v>1.618697</v>
+        <v>1.6186970000000001</v>
       </c>
       <c r="AB3" s="1">
-        <v>1348.010000</v>
+        <v>1348.01</v>
       </c>
       <c r="AC3" s="1">
-        <v>-169.273000</v>
+        <v>-169.273</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>5837.944255</v>
+        <v>5837.9442550000003</v>
       </c>
       <c r="AF3" s="1">
         <v>1.621651</v>
       </c>
       <c r="AG3" s="1">
-        <v>1360.830000</v>
+        <v>1360.83</v>
       </c>
       <c r="AH3" s="1">
-        <v>-179.046000</v>
+        <v>-179.04599999999999</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>5848.256056</v>
+        <v>5848.2560560000002</v>
       </c>
       <c r="AK3" s="1">
-        <v>1.624516</v>
+        <v>1.6245160000000001</v>
       </c>
       <c r="AL3" s="1">
-        <v>1381.310000</v>
+        <v>1381.31</v>
       </c>
       <c r="AM3" s="1">
-        <v>-209.286000</v>
+        <v>-209.286</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>5859.169528</v>
+        <v>5859.1695280000004</v>
       </c>
       <c r="AP3" s="1">
-        <v>1.627547</v>
+        <v>1.6275470000000001</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1402.840000</v>
+        <v>1402.84</v>
       </c>
       <c r="AR3" s="1">
-        <v>-253.601000</v>
+        <v>-253.601</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>5870.278486</v>
+        <v>5870.2784860000002</v>
       </c>
       <c r="AU3" s="1">
         <v>1.630633</v>
       </c>
       <c r="AV3" s="1">
-        <v>1427.160000</v>
+        <v>1427.16</v>
       </c>
       <c r="AW3" s="1">
-        <v>-314.164000</v>
+        <v>-314.16399999999999</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
         <v>5881.757834</v>
       </c>
       <c r="AZ3" s="1">
-        <v>1.633822</v>
+        <v>1.6338220000000001</v>
       </c>
       <c r="BA3" s="1">
-        <v>1446.330000</v>
+        <v>1446.33</v>
       </c>
       <c r="BB3" s="1">
-        <v>-366.842000</v>
+        <v>-366.84199999999998</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>5892.801261</v>
+        <v>5892.8012609999996</v>
       </c>
       <c r="BE3" s="1">
         <v>1.636889</v>
       </c>
       <c r="BF3" s="1">
-        <v>1530.530000</v>
+        <v>1530.53</v>
       </c>
       <c r="BG3" s="1">
-        <v>-618.302000</v>
+        <v>-618.30200000000002</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>5903.515342</v>
+        <v>5903.5153419999997</v>
       </c>
       <c r="BJ3" s="1">
-        <v>1.639865</v>
+        <v>1.6398649999999999</v>
       </c>
       <c r="BK3" s="1">
-        <v>1682.980000</v>
+        <v>1682.98</v>
       </c>
       <c r="BL3" s="1">
-        <v>-1071.080000</v>
+        <v>-1071.08</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>5913.914496</v>
+        <v>5913.9144960000003</v>
       </c>
       <c r="BO3" s="1">
         <v>1.642754</v>
       </c>
       <c r="BP3" s="1">
-        <v>1975.550000</v>
+        <v>1975.55</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-1859.450000</v>
+        <v>-1859.45</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>5924.336402</v>
+        <v>5924.3364019999999</v>
       </c>
       <c r="BT3" s="1">
-        <v>1.645649</v>
+        <v>1.6456489999999999</v>
       </c>
       <c r="BU3" s="1">
-        <v>2360.710000</v>
+        <v>2360.71</v>
       </c>
       <c r="BV3" s="1">
-        <v>-2772.370000</v>
+        <v>-2772.37</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>5935.048502</v>
+        <v>5935.0485019999996</v>
       </c>
       <c r="BY3" s="1">
         <v>1.648625</v>
       </c>
       <c r="BZ3" s="1">
-        <v>2849.230000</v>
+        <v>2849.23</v>
       </c>
       <c r="CA3" s="1">
-        <v>-3774.210000</v>
+        <v>-3774.21</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>5946.017526</v>
+        <v>5946.0175259999996</v>
       </c>
       <c r="CD3" s="1">
         <v>1.651672</v>
       </c>
       <c r="CE3" s="1">
-        <v>4294.450000</v>
+        <v>4294.45</v>
       </c>
       <c r="CF3" s="1">
-        <v>-6189.300000</v>
+        <v>-6189.3</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>5775.578264</v>
+        <v>5775.5782639999998</v>
       </c>
       <c r="B4" s="1">
-        <v>1.604327</v>
+        <v>1.6043270000000001</v>
       </c>
       <c r="C4" s="1">
-        <v>1246.150000</v>
+        <v>1246.1500000000001</v>
       </c>
       <c r="D4" s="1">
-        <v>-308.371000</v>
+        <v>-308.37099999999998</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>5785.983337</v>
+        <v>5785.9833369999997</v>
       </c>
       <c r="G4" s="1">
         <v>1.607218</v>
       </c>
       <c r="H4" s="1">
-        <v>1271.810000</v>
+        <v>1271.81</v>
       </c>
       <c r="I4" s="1">
-        <v>-265.425000</v>
+        <v>-265.42500000000001</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>5796.100732</v>
+        <v>5796.1007319999999</v>
       </c>
       <c r="L4" s="1">
         <v>1.610028</v>
       </c>
       <c r="M4" s="1">
-        <v>1306.780000</v>
+        <v>1306.78</v>
       </c>
       <c r="N4" s="1">
-        <v>-203.018000</v>
+        <v>-203.018</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
         <v>5806.954686</v>
@@ -1040,964 +1456,964 @@
         <v>1.613043</v>
       </c>
       <c r="R4" s="1">
-        <v>1318.190000</v>
+        <v>1318.19</v>
       </c>
       <c r="S4" s="1">
-        <v>-184.544000</v>
+        <v>-184.54400000000001</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>5817.537361</v>
+        <v>5817.5373609999997</v>
       </c>
       <c r="V4" s="1">
-        <v>1.615983</v>
+        <v>1.6159829999999999</v>
       </c>
       <c r="W4" s="1">
-        <v>1330.950000</v>
+        <v>1330.95</v>
       </c>
       <c r="X4" s="1">
-        <v>-171.009000</v>
+        <v>-171.00899999999999</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>5827.659682</v>
+        <v>5827.6596820000004</v>
       </c>
       <c r="AA4" s="1">
-        <v>1.618794</v>
+        <v>1.6187940000000001</v>
       </c>
       <c r="AB4" s="1">
-        <v>1347.870000</v>
+        <v>1347.87</v>
       </c>
       <c r="AC4" s="1">
-        <v>-168.779000</v>
+        <v>-168.779</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>5838.224497</v>
+        <v>5838.2244970000002</v>
       </c>
       <c r="AF4" s="1">
         <v>1.621729</v>
       </c>
       <c r="AG4" s="1">
-        <v>1360.830000</v>
+        <v>1360.83</v>
       </c>
       <c r="AH4" s="1">
-        <v>-178.998000</v>
+        <v>-178.99799999999999</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>5848.602760</v>
+        <v>5848.6027599999998</v>
       </c>
       <c r="AK4" s="1">
-        <v>1.624612</v>
+        <v>1.6246119999999999</v>
       </c>
       <c r="AL4" s="1">
-        <v>1381.330000</v>
+        <v>1381.33</v>
       </c>
       <c r="AM4" s="1">
-        <v>-209.299000</v>
+        <v>-209.29900000000001</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>5859.847096</v>
+        <v>5859.8470960000004</v>
       </c>
       <c r="AP4" s="1">
-        <v>1.627735</v>
+        <v>1.6277349999999999</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1402.850000</v>
+        <v>1402.85</v>
       </c>
       <c r="AR4" s="1">
-        <v>-253.590000</v>
+        <v>-253.59</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>5870.946042</v>
+        <v>5870.9460419999996</v>
       </c>
       <c r="AU4" s="1">
-        <v>1.630818</v>
+        <v>1.6308180000000001</v>
       </c>
       <c r="AV4" s="1">
-        <v>1427.180000</v>
+        <v>1427.18</v>
       </c>
       <c r="AW4" s="1">
-        <v>-314.148000</v>
+        <v>-314.14800000000002</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>5882.163563</v>
+        <v>5882.1635630000001</v>
       </c>
       <c r="AZ4" s="1">
         <v>1.633934</v>
       </c>
       <c r="BA4" s="1">
-        <v>1446.340000</v>
+        <v>1446.34</v>
       </c>
       <c r="BB4" s="1">
-        <v>-366.830000</v>
+        <v>-366.83</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>5893.163836</v>
+        <v>5893.1638359999997</v>
       </c>
       <c r="BE4" s="1">
-        <v>1.636990</v>
+        <v>1.6369899999999999</v>
       </c>
       <c r="BF4" s="1">
-        <v>1530.510000</v>
+        <v>1530.51</v>
       </c>
       <c r="BG4" s="1">
-        <v>-618.330000</v>
+        <v>-618.33000000000004</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>5903.889822</v>
+        <v>5903.8898220000001</v>
       </c>
       <c r="BJ4" s="1">
         <v>1.639969</v>
       </c>
       <c r="BK4" s="1">
-        <v>1682.940000</v>
+        <v>1682.94</v>
       </c>
       <c r="BL4" s="1">
-        <v>-1071.130000</v>
+        <v>-1071.1300000000001</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>5914.341286</v>
+        <v>5914.3412859999999</v>
       </c>
       <c r="BO4" s="1">
         <v>1.642873</v>
       </c>
       <c r="BP4" s="1">
-        <v>1975.380000</v>
+        <v>1975.38</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-1859.520000</v>
+        <v>-1859.52</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>5924.771395</v>
+        <v>5924.7713949999998</v>
       </c>
       <c r="BT4" s="1">
-        <v>1.645770</v>
+        <v>1.64577</v>
       </c>
       <c r="BU4" s="1">
-        <v>2360.690000</v>
+        <v>2360.69</v>
       </c>
       <c r="BV4" s="1">
-        <v>-2771.920000</v>
+        <v>-2771.92</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>5935.478532</v>
+        <v>5935.4785320000001</v>
       </c>
       <c r="BY4" s="1">
         <v>1.648744</v>
       </c>
       <c r="BZ4" s="1">
-        <v>2848.560000</v>
+        <v>2848.56</v>
       </c>
       <c r="CA4" s="1">
-        <v>-3773.680000</v>
+        <v>-3773.68</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>5946.538492</v>
+        <v>5946.5384919999997</v>
       </c>
       <c r="CD4" s="1">
         <v>1.651816</v>
       </c>
       <c r="CE4" s="1">
-        <v>4275.710000</v>
+        <v>4275.71</v>
       </c>
       <c r="CF4" s="1">
-        <v>-6204.380000</v>
+        <v>-6204.38</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>5775.920503</v>
+        <v>5775.9205030000003</v>
       </c>
       <c r="B5" s="1">
         <v>1.604422</v>
       </c>
       <c r="C5" s="1">
-        <v>1246.390000</v>
+        <v>1246.3900000000001</v>
       </c>
       <c r="D5" s="1">
-        <v>-307.955000</v>
+        <v>-307.95499999999998</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>5786.328057</v>
+        <v>5786.3280569999997</v>
       </c>
       <c r="G5" s="1">
         <v>1.607313</v>
       </c>
       <c r="H5" s="1">
-        <v>1271.410000</v>
+        <v>1271.4100000000001</v>
       </c>
       <c r="I5" s="1">
-        <v>-265.866000</v>
+        <v>-265.86599999999999</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>5796.787691</v>
+        <v>5796.7876910000005</v>
       </c>
       <c r="L5" s="1">
-        <v>1.610219</v>
+        <v>1.6102190000000001</v>
       </c>
       <c r="M5" s="1">
-        <v>1306.340000</v>
+        <v>1306.3399999999999</v>
       </c>
       <c r="N5" s="1">
-        <v>-202.744000</v>
+        <v>-202.744</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>5807.302914</v>
+        <v>5807.3029139999999</v>
       </c>
       <c r="Q5" s="1">
-        <v>1.613140</v>
+        <v>1.61314</v>
       </c>
       <c r="R5" s="1">
-        <v>1318.170000</v>
+        <v>1318.17</v>
       </c>
       <c r="S5" s="1">
-        <v>-184.571000</v>
+        <v>-184.571</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>5817.881055</v>
+        <v>5817.8810549999998</v>
       </c>
       <c r="V5" s="1">
-        <v>1.616078</v>
+        <v>1.6160779999999999</v>
       </c>
       <c r="W5" s="1">
-        <v>1331.060000</v>
+        <v>1331.06</v>
       </c>
       <c r="X5" s="1">
-        <v>-171.089000</v>
+        <v>-171.089</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
         <v>5828.006883</v>
       </c>
       <c r="AA5" s="1">
-        <v>1.618891</v>
+        <v>1.6188910000000001</v>
       </c>
       <c r="AB5" s="1">
-        <v>1347.990000</v>
+        <v>1347.99</v>
       </c>
       <c r="AC5" s="1">
-        <v>-169.221000</v>
+        <v>-169.221</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>5838.867817</v>
+        <v>5838.8678170000003</v>
       </c>
       <c r="AF5" s="1">
-        <v>1.621908</v>
+        <v>1.6219079999999999</v>
       </c>
       <c r="AG5" s="1">
-        <v>1360.820000</v>
+        <v>1360.82</v>
       </c>
       <c r="AH5" s="1">
-        <v>-179.055000</v>
+        <v>-179.05500000000001</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>5849.262934</v>
+        <v>5849.2629340000003</v>
       </c>
       <c r="AK5" s="1">
         <v>1.624795</v>
       </c>
       <c r="AL5" s="1">
-        <v>1381.300000</v>
+        <v>1381.3</v>
       </c>
       <c r="AM5" s="1">
-        <v>-209.318000</v>
+        <v>-209.31800000000001</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
         <v>5860.273623</v>
       </c>
       <c r="AP5" s="1">
-        <v>1.627854</v>
+        <v>1.6278539999999999</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1402.840000</v>
+        <v>1402.84</v>
       </c>
       <c r="AR5" s="1">
-        <v>-253.570000</v>
+        <v>-253.57</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>5871.398395</v>
+        <v>5871.3983950000002</v>
       </c>
       <c r="AU5" s="1">
-        <v>1.630944</v>
+        <v>1.6309439999999999</v>
       </c>
       <c r="AV5" s="1">
-        <v>1427.180000</v>
+        <v>1427.18</v>
       </c>
       <c r="AW5" s="1">
-        <v>-314.153000</v>
+        <v>-314.15300000000002</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
         <v>5882.547963</v>
       </c>
       <c r="AZ5" s="1">
-        <v>1.634041</v>
+        <v>1.6340410000000001</v>
       </c>
       <c r="BA5" s="1">
-        <v>1446.340000</v>
+        <v>1446.34</v>
       </c>
       <c r="BB5" s="1">
-        <v>-366.833000</v>
+        <v>-366.83300000000003</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>5893.521478</v>
+        <v>5893.5214779999997</v>
       </c>
       <c r="BE5" s="1">
         <v>1.637089</v>
       </c>
       <c r="BF5" s="1">
-        <v>1530.530000</v>
+        <v>1530.53</v>
       </c>
       <c r="BG5" s="1">
-        <v>-618.314000</v>
+        <v>-618.31399999999996</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>5904.263309</v>
+        <v>5904.2633089999999</v>
       </c>
       <c r="BJ5" s="1">
-        <v>1.640073</v>
+        <v>1.6400729999999999</v>
       </c>
       <c r="BK5" s="1">
-        <v>1682.930000</v>
+        <v>1682.93</v>
       </c>
       <c r="BL5" s="1">
-        <v>-1071.180000</v>
+        <v>-1071.18</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>5914.764112</v>
+        <v>5914.7641119999998</v>
       </c>
       <c r="BO5" s="1">
-        <v>1.642990</v>
+        <v>1.64299</v>
       </c>
       <c r="BP5" s="1">
-        <v>1975.390000</v>
+        <v>1975.39</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-1859.640000</v>
+        <v>-1859.64</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>5925.200930</v>
+        <v>5925.20093</v>
       </c>
       <c r="BT5" s="1">
-        <v>1.645889</v>
+        <v>1.6458889999999999</v>
       </c>
       <c r="BU5" s="1">
-        <v>2360.530000</v>
+        <v>2360.5300000000002</v>
       </c>
       <c r="BV5" s="1">
-        <v>-2771.840000</v>
+        <v>-2771.84</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>5935.899177</v>
+        <v>5935.8991770000002</v>
       </c>
       <c r="BY5" s="1">
-        <v>1.648861</v>
+        <v>1.6488609999999999</v>
       </c>
       <c r="BZ5" s="1">
-        <v>2848.120000</v>
+        <v>2848.12</v>
       </c>
       <c r="CA5" s="1">
-        <v>-3773.780000</v>
+        <v>-3773.78</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>5947.077476</v>
+        <v>5947.0774760000004</v>
       </c>
       <c r="CD5" s="1">
         <v>1.651966</v>
       </c>
       <c r="CE5" s="1">
-        <v>4299.720000</v>
+        <v>4299.72</v>
       </c>
       <c r="CF5" s="1">
-        <v>-6201.740000</v>
+        <v>-6201.74</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>5776.600022</v>
+        <v>5776.6000219999996</v>
       </c>
       <c r="B6" s="1">
         <v>1.604611</v>
       </c>
       <c r="C6" s="1">
-        <v>1246.670000</v>
+        <v>1246.67</v>
       </c>
       <c r="D6" s="1">
-        <v>-308.058000</v>
+        <v>-308.05799999999999</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>5787.019480</v>
+        <v>5787.0194799999999</v>
       </c>
       <c r="G6" s="1">
         <v>1.607505</v>
       </c>
       <c r="H6" s="1">
-        <v>1271.000000</v>
+        <v>1271</v>
       </c>
       <c r="I6" s="1">
-        <v>-265.702000</v>
+        <v>-265.702</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
         <v>5797.137866</v>
       </c>
       <c r="L6" s="1">
-        <v>1.610316</v>
+        <v>1.6103160000000001</v>
       </c>
       <c r="M6" s="1">
-        <v>1306.330000</v>
+        <v>1306.33</v>
       </c>
       <c r="N6" s="1">
-        <v>-202.976000</v>
+        <v>-202.976</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>5807.654046</v>
+        <v>5807.6540459999997</v>
       </c>
       <c r="Q6" s="1">
         <v>1.613237</v>
       </c>
       <c r="R6" s="1">
-        <v>1318.170000</v>
+        <v>1318.17</v>
       </c>
       <c r="S6" s="1">
-        <v>-184.637000</v>
+        <v>-184.637</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>5818.224288</v>
+        <v>5818.2242880000003</v>
       </c>
       <c r="V6" s="1">
-        <v>1.616173</v>
+        <v>1.6161730000000001</v>
       </c>
       <c r="W6" s="1">
-        <v>1331.100000</v>
+        <v>1331.1</v>
       </c>
       <c r="X6" s="1">
-        <v>-170.990000</v>
+        <v>-170.99</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>5828.660610</v>
+        <v>5828.6606099999999</v>
       </c>
       <c r="AA6" s="1">
-        <v>1.619072</v>
+        <v>1.6190720000000001</v>
       </c>
       <c r="AB6" s="1">
-        <v>1348.000000</v>
+        <v>1348</v>
       </c>
       <c r="AC6" s="1">
-        <v>-169.099000</v>
+        <v>-169.09899999999999</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>5839.253699</v>
+        <v>5839.2536989999999</v>
       </c>
       <c r="AF6" s="1">
         <v>1.622015</v>
       </c>
       <c r="AG6" s="1">
-        <v>1360.870000</v>
+        <v>1360.87</v>
       </c>
       <c r="AH6" s="1">
-        <v>-178.990000</v>
+        <v>-178.99</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>5849.647861</v>
+        <v>5849.6478610000004</v>
       </c>
       <c r="AK6" s="1">
-        <v>1.624902</v>
+        <v>1.6249020000000001</v>
       </c>
       <c r="AL6" s="1">
-        <v>1381.310000</v>
+        <v>1381.31</v>
       </c>
       <c r="AM6" s="1">
-        <v>-209.287000</v>
+        <v>-209.28700000000001</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>5860.662984</v>
+        <v>5860.6629839999996</v>
       </c>
       <c r="AP6" s="1">
-        <v>1.627962</v>
+        <v>1.6279619999999999</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1402.800000</v>
+        <v>1402.8</v>
       </c>
       <c r="AR6" s="1">
-        <v>-253.585000</v>
+        <v>-253.58500000000001</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>5871.760981</v>
+        <v>5871.7609810000004</v>
       </c>
       <c r="AU6" s="1">
-        <v>1.631045</v>
+        <v>1.6310450000000001</v>
       </c>
       <c r="AV6" s="1">
-        <v>1427.210000</v>
+        <v>1427.21</v>
       </c>
       <c r="AW6" s="1">
-        <v>-314.174000</v>
+        <v>-314.17399999999998</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>5882.926906</v>
+        <v>5882.9269059999997</v>
       </c>
       <c r="AZ6" s="1">
-        <v>1.634146</v>
+        <v>1.6341460000000001</v>
       </c>
       <c r="BA6" s="1">
-        <v>1446.340000</v>
+        <v>1446.34</v>
       </c>
       <c r="BB6" s="1">
-        <v>-366.814000</v>
+        <v>-366.81400000000002</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>5893.930651</v>
+        <v>5893.9306509999997</v>
       </c>
       <c r="BE6" s="1">
         <v>1.637203</v>
       </c>
       <c r="BF6" s="1">
-        <v>1530.470000</v>
+        <v>1530.47</v>
       </c>
       <c r="BG6" s="1">
-        <v>-618.351000</v>
+        <v>-618.351</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>5904.686929</v>
+        <v>5904.6869290000004</v>
       </c>
       <c r="BJ6" s="1">
         <v>1.640191</v>
       </c>
       <c r="BK6" s="1">
-        <v>1683.000000</v>
+        <v>1683</v>
       </c>
       <c r="BL6" s="1">
-        <v>-1071.170000</v>
+        <v>-1071.17</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>5915.159919</v>
+        <v>5915.1599189999997</v>
       </c>
       <c r="BO6" s="1">
-        <v>1.643100</v>
+        <v>1.6431</v>
       </c>
       <c r="BP6" s="1">
-        <v>1975.470000</v>
+        <v>1975.47</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-1859.420000</v>
+        <v>-1859.42</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>5925.610161</v>
+        <v>5925.6101609999996</v>
       </c>
       <c r="BT6" s="1">
-        <v>1.646003</v>
+        <v>1.6460030000000001</v>
       </c>
       <c r="BU6" s="1">
-        <v>2360.670000</v>
+        <v>2360.67</v>
       </c>
       <c r="BV6" s="1">
-        <v>-2771.570000</v>
+        <v>-2771.57</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>5936.320740</v>
+        <v>5936.3207400000001</v>
       </c>
       <c r="BY6" s="1">
-        <v>1.648978</v>
+        <v>1.6489780000000001</v>
       </c>
       <c r="BZ6" s="1">
-        <v>2847.950000</v>
+        <v>2847.95</v>
       </c>
       <c r="CA6" s="1">
-        <v>-3774.360000</v>
+        <v>-3774.36</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
         <v>5947.616164</v>
       </c>
       <c r="CD6" s="1">
-        <v>1.652116</v>
+        <v>1.6521159999999999</v>
       </c>
       <c r="CE6" s="1">
-        <v>4281.090000</v>
+        <v>4281.09</v>
       </c>
       <c r="CF6" s="1">
-        <v>-6193.720000</v>
+        <v>-6193.72</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>5776.945273</v>
+        <v>5776.9452730000003</v>
       </c>
       <c r="B7" s="1">
-        <v>1.604707</v>
+        <v>1.6047070000000001</v>
       </c>
       <c r="C7" s="1">
-        <v>1246.440000</v>
+        <v>1246.44</v>
       </c>
       <c r="D7" s="1">
-        <v>-308.127000</v>
+        <v>-308.12700000000001</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
         <v>5787.360232</v>
       </c>
       <c r="G7" s="1">
-        <v>1.607600</v>
+        <v>1.6075999999999999</v>
       </c>
       <c r="H7" s="1">
-        <v>1272.020000</v>
+        <v>1272.02</v>
       </c>
       <c r="I7" s="1">
-        <v>-265.157000</v>
+        <v>-265.15699999999998</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>5797.482091</v>
+        <v>5797.4820909999999</v>
       </c>
       <c r="L7" s="1">
         <v>1.610412</v>
       </c>
       <c r="M7" s="1">
-        <v>1306.280000</v>
+        <v>1306.28</v>
       </c>
       <c r="N7" s="1">
-        <v>-202.878000</v>
+        <v>-202.87799999999999</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>5808.317695</v>
+        <v>5808.3176949999997</v>
       </c>
       <c r="Q7" s="1">
-        <v>1.613422</v>
+        <v>1.6134219999999999</v>
       </c>
       <c r="R7" s="1">
-        <v>1318.030000</v>
+        <v>1318.03</v>
       </c>
       <c r="S7" s="1">
-        <v>-184.567000</v>
+        <v>-184.56700000000001</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>5818.878510</v>
+        <v>5818.8785099999996</v>
       </c>
       <c r="V7" s="1">
         <v>1.616355</v>
       </c>
       <c r="W7" s="1">
-        <v>1330.890000</v>
+        <v>1330.89</v>
       </c>
       <c r="X7" s="1">
-        <v>-171.052000</v>
+        <v>-171.05199999999999</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>5829.052945</v>
+        <v>5829.0529450000004</v>
       </c>
       <c r="AA7" s="1">
         <v>1.619181</v>
       </c>
       <c r="AB7" s="1">
-        <v>1347.970000</v>
+        <v>1347.97</v>
       </c>
       <c r="AC7" s="1">
-        <v>-169.178000</v>
+        <v>-169.178</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
         <v>5839.596931</v>
       </c>
       <c r="AF7" s="1">
-        <v>1.622110</v>
+        <v>1.6221099999999999</v>
       </c>
       <c r="AG7" s="1">
-        <v>1360.880000</v>
+        <v>1360.88</v>
       </c>
       <c r="AH7" s="1">
-        <v>-179.065000</v>
+        <v>-179.065</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>5849.997013</v>
+        <v>5849.9970130000002</v>
       </c>
       <c r="AK7" s="1">
-        <v>1.624999</v>
+        <v>1.6249990000000001</v>
       </c>
       <c r="AL7" s="1">
-        <v>1381.320000</v>
+        <v>1381.32</v>
       </c>
       <c r="AM7" s="1">
-        <v>-209.276000</v>
+        <v>-209.27600000000001</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>5861.021623</v>
+        <v>5861.0216229999996</v>
       </c>
       <c r="AP7" s="1">
-        <v>1.628062</v>
+        <v>1.6280619999999999</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1402.850000</v>
+        <v>1402.85</v>
       </c>
       <c r="AR7" s="1">
-        <v>-253.583000</v>
+        <v>-253.583</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>5872.190042</v>
+        <v>5872.1900420000002</v>
       </c>
       <c r="AU7" s="1">
-        <v>1.631164</v>
+        <v>1.6311640000000001</v>
       </c>
       <c r="AV7" s="1">
-        <v>1427.180000</v>
+        <v>1427.18</v>
       </c>
       <c r="AW7" s="1">
-        <v>-314.147000</v>
+        <v>-314.14699999999999</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>5883.345032</v>
+        <v>5883.3450320000002</v>
       </c>
       <c r="AZ7" s="1">
         <v>1.634263</v>
       </c>
       <c r="BA7" s="1">
-        <v>1446.340000</v>
+        <v>1446.34</v>
       </c>
       <c r="BB7" s="1">
-        <v>-366.813000</v>
+        <v>-366.81299999999999</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>5894.243639</v>
+        <v>5894.2436390000003</v>
       </c>
       <c r="BE7" s="1">
-        <v>1.637290</v>
+        <v>1.6372899999999999</v>
       </c>
       <c r="BF7" s="1">
-        <v>1530.490000</v>
+        <v>1530.49</v>
       </c>
       <c r="BG7" s="1">
-        <v>-618.292000</v>
+        <v>-618.29200000000003</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>5905.016769</v>
+        <v>5905.0167689999998</v>
       </c>
       <c r="BJ7" s="1">
         <v>1.640282</v>
       </c>
       <c r="BK7" s="1">
-        <v>1682.940000</v>
+        <v>1682.94</v>
       </c>
       <c r="BL7" s="1">
-        <v>-1071.090000</v>
+        <v>-1071.0899999999999</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>5915.580526</v>
+        <v>5915.5805259999997</v>
       </c>
       <c r="BO7" s="1">
-        <v>1.643217</v>
+        <v>1.6432169999999999</v>
       </c>
       <c r="BP7" s="1">
-        <v>1975.300000</v>
+        <v>1975.3</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-1859.540000</v>
+        <v>-1859.54</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>5926.038672</v>
+        <v>5926.0386719999997</v>
       </c>
       <c r="BT7" s="1">
-        <v>1.646122</v>
+        <v>1.6461220000000001</v>
       </c>
       <c r="BU7" s="1">
-        <v>2360.860000</v>
+        <v>2360.86</v>
       </c>
       <c r="BV7" s="1">
-        <v>-2771.360000</v>
+        <v>-2771.36</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>5936.749810</v>
+        <v>5936.7498100000003</v>
       </c>
       <c r="BY7" s="1">
         <v>1.649097</v>
       </c>
       <c r="BZ7" s="1">
-        <v>2849.240000</v>
+        <v>2849.24</v>
       </c>
       <c r="CA7" s="1">
-        <v>-3774.330000</v>
+        <v>-3774.33</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
         <v>5948.155812</v>
@@ -2006,180 +2422,180 @@
         <v>1.652266</v>
       </c>
       <c r="CE7" s="1">
-        <v>4286.300000</v>
+        <v>4286.3</v>
       </c>
       <c r="CF7" s="1">
-        <v>-6212.320000</v>
+        <v>-6212.32</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>5777.290491</v>
+        <v>5777.2904909999997</v>
       </c>
       <c r="B8" s="1">
         <v>1.604803</v>
       </c>
       <c r="C8" s="1">
-        <v>1246.570000</v>
+        <v>1246.57</v>
       </c>
       <c r="D8" s="1">
-        <v>-307.809000</v>
+        <v>-307.80900000000003</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>5787.719220</v>
+        <v>5787.71922</v>
       </c>
       <c r="G8" s="1">
-        <v>1.607700</v>
+        <v>1.6076999999999999</v>
       </c>
       <c r="H8" s="1">
-        <v>1271.490000</v>
+        <v>1271.49</v>
       </c>
       <c r="I8" s="1">
-        <v>-265.908000</v>
+        <v>-265.90800000000002</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>5798.131388</v>
+        <v>5798.1313879999998</v>
       </c>
       <c r="L8" s="1">
         <v>1.610592</v>
       </c>
       <c r="M8" s="1">
-        <v>1306.690000</v>
+        <v>1306.69</v>
       </c>
       <c r="N8" s="1">
-        <v>-202.664000</v>
+        <v>-202.66399999999999</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>5808.701597</v>
+        <v>5808.7015970000002</v>
       </c>
       <c r="Q8" s="1">
-        <v>1.613528</v>
+        <v>1.6135280000000001</v>
       </c>
       <c r="R8" s="1">
-        <v>1318.070000</v>
+        <v>1318.07</v>
       </c>
       <c r="S8" s="1">
-        <v>-184.530000</v>
+        <v>-184.53</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
         <v>5819.253487</v>
       </c>
       <c r="V8" s="1">
-        <v>1.616459</v>
+        <v>1.6164590000000001</v>
       </c>
       <c r="W8" s="1">
-        <v>1330.980000</v>
+        <v>1330.98</v>
       </c>
       <c r="X8" s="1">
-        <v>-171.094000</v>
+        <v>-171.09399999999999</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>5829.402165</v>
+        <v>5829.4021650000004</v>
       </c>
       <c r="AA8" s="1">
         <v>1.619278</v>
       </c>
       <c r="AB8" s="1">
-        <v>1347.930000</v>
+        <v>1347.93</v>
       </c>
       <c r="AC8" s="1">
-        <v>-169.069000</v>
+        <v>-169.06899999999999</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>5839.942149</v>
+        <v>5839.9421490000004</v>
       </c>
       <c r="AF8" s="1">
         <v>1.622206</v>
       </c>
       <c r="AG8" s="1">
-        <v>1360.780000</v>
+        <v>1360.78</v>
       </c>
       <c r="AH8" s="1">
-        <v>-179.089000</v>
+        <v>-179.089</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>5850.348180</v>
+        <v>5850.34818</v>
       </c>
       <c r="AK8" s="1">
         <v>1.625097</v>
       </c>
       <c r="AL8" s="1">
-        <v>1381.300000</v>
+        <v>1381.3</v>
       </c>
       <c r="AM8" s="1">
-        <v>-209.304000</v>
+        <v>-209.304</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>5861.435787</v>
+        <v>5861.4357870000003</v>
       </c>
       <c r="AP8" s="1">
         <v>1.628177</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1402.820000</v>
+        <v>1402.82</v>
       </c>
       <c r="AR8" s="1">
-        <v>-253.604000</v>
+        <v>-253.60400000000001</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>5872.492567</v>
+        <v>5872.4925670000002</v>
       </c>
       <c r="AU8" s="1">
         <v>1.631248</v>
       </c>
       <c r="AV8" s="1">
-        <v>1427.210000</v>
+        <v>1427.21</v>
       </c>
       <c r="AW8" s="1">
-        <v>-314.199000</v>
+        <v>-314.19900000000001</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>5883.646600</v>
+        <v>5883.6466</v>
       </c>
       <c r="AZ8" s="1">
-        <v>1.634346</v>
+        <v>1.6343460000000001</v>
       </c>
       <c r="BA8" s="1">
-        <v>1446.360000</v>
+        <v>1446.36</v>
       </c>
       <c r="BB8" s="1">
-        <v>-366.816000</v>
+        <v>-366.81599999999997</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
         <v>5894.609786</v>
@@ -2188,180 +2604,180 @@
         <v>1.637392</v>
       </c>
       <c r="BF8" s="1">
-        <v>1530.460000</v>
+        <v>1530.46</v>
       </c>
       <c r="BG8" s="1">
-        <v>-618.337000</v>
+        <v>-618.33699999999999</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>5905.415515</v>
+        <v>5905.4155149999997</v>
       </c>
       <c r="BJ8" s="1">
         <v>1.640393</v>
       </c>
       <c r="BK8" s="1">
-        <v>1682.960000</v>
+        <v>1682.96</v>
       </c>
       <c r="BL8" s="1">
-        <v>-1071.170000</v>
+        <v>-1071.17</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>5915.977325</v>
+        <v>5915.9773249999998</v>
       </c>
       <c r="BO8" s="1">
         <v>1.643327</v>
       </c>
       <c r="BP8" s="1">
-        <v>1975.270000</v>
+        <v>1975.27</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-1859.370000</v>
+        <v>-1859.37</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>5926.469696</v>
+        <v>5926.4696960000001</v>
       </c>
       <c r="BT8" s="1">
         <v>1.646242</v>
       </c>
       <c r="BU8" s="1">
-        <v>2361.050000</v>
+        <v>2361.0500000000002</v>
       </c>
       <c r="BV8" s="1">
-        <v>-2771.140000</v>
+        <v>-2771.14</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>5937.171874</v>
+        <v>5937.1718739999997</v>
       </c>
       <c r="BY8" s="1">
         <v>1.649214</v>
       </c>
       <c r="BZ8" s="1">
-        <v>2848.790000</v>
+        <v>2848.79</v>
       </c>
       <c r="CA8" s="1">
-        <v>-3773.770000</v>
+        <v>-3773.77</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>5948.694932</v>
+        <v>5948.6949320000003</v>
       </c>
       <c r="CD8" s="1">
         <v>1.652415</v>
       </c>
       <c r="CE8" s="1">
-        <v>4293.960000</v>
+        <v>4293.96</v>
       </c>
       <c r="CF8" s="1">
-        <v>-6189.920000</v>
+        <v>-6189.92</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>5777.943685</v>
+        <v>5777.9436850000002</v>
       </c>
       <c r="B9" s="1">
         <v>1.604984</v>
       </c>
       <c r="C9" s="1">
-        <v>1246.750000</v>
+        <v>1246.75</v>
       </c>
       <c r="D9" s="1">
-        <v>-308.024000</v>
+        <v>-308.024</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>5788.174695</v>
+        <v>5788.1746949999997</v>
       </c>
       <c r="G9" s="1">
         <v>1.607826</v>
       </c>
       <c r="H9" s="1">
-        <v>1271.950000</v>
+        <v>1271.95</v>
       </c>
       <c r="I9" s="1">
-        <v>-265.476000</v>
+        <v>-265.476</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>5798.518233</v>
+        <v>5798.5182329999998</v>
       </c>
       <c r="L9" s="1">
-        <v>1.610700</v>
+        <v>1.6107</v>
       </c>
       <c r="M9" s="1">
-        <v>1306.340000</v>
+        <v>1306.3399999999999</v>
       </c>
       <c r="N9" s="1">
-        <v>-202.858000</v>
+        <v>-202.858</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>5809.050283</v>
+        <v>5809.0502829999996</v>
       </c>
       <c r="Q9" s="1">
-        <v>1.613625</v>
+        <v>1.6136250000000001</v>
       </c>
       <c r="R9" s="1">
-        <v>1318.160000</v>
+        <v>1318.16</v>
       </c>
       <c r="S9" s="1">
-        <v>-184.485000</v>
+        <v>-184.48500000000001</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>5819.599197</v>
+        <v>5819.5991969999995</v>
       </c>
       <c r="V9" s="1">
         <v>1.616555</v>
       </c>
       <c r="W9" s="1">
-        <v>1331.010000</v>
+        <v>1331.01</v>
       </c>
       <c r="X9" s="1">
-        <v>-171.059000</v>
+        <v>-171.059</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>5829.750319</v>
+        <v>5829.7503189999998</v>
       </c>
       <c r="AA9" s="1">
         <v>1.619375</v>
       </c>
       <c r="AB9" s="1">
-        <v>1347.990000</v>
+        <v>1347.99</v>
       </c>
       <c r="AC9" s="1">
-        <v>-169.192000</v>
+        <v>-169.19200000000001</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
         <v>5840.358311</v>
@@ -2370,28 +2786,28 @@
         <v>1.622322</v>
       </c>
       <c r="AG9" s="1">
-        <v>1360.850000</v>
+        <v>1360.85</v>
       </c>
       <c r="AH9" s="1">
-        <v>-178.992000</v>
+        <v>-178.99199999999999</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>5850.768788</v>
+        <v>5850.7687880000003</v>
       </c>
       <c r="AK9" s="1">
-        <v>1.625214</v>
+        <v>1.6252139999999999</v>
       </c>
       <c r="AL9" s="1">
-        <v>1381.320000</v>
+        <v>1381.32</v>
       </c>
       <c r="AM9" s="1">
-        <v>-209.293000</v>
+        <v>-209.29300000000001</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
         <v>5861.741317</v>
@@ -2400,43 +2816,43 @@
         <v>1.628261</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1402.830000</v>
+        <v>1402.83</v>
       </c>
       <c r="AR9" s="1">
-        <v>-253.575000</v>
+        <v>-253.57499999999999</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>5872.858119</v>
+        <v>5872.8581190000004</v>
       </c>
       <c r="AU9" s="1">
-        <v>1.631349</v>
+        <v>1.6313489999999999</v>
       </c>
       <c r="AV9" s="1">
-        <v>1427.200000</v>
+        <v>1427.2</v>
       </c>
       <c r="AW9" s="1">
-        <v>-314.151000</v>
+        <v>-314.15100000000001</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
         <v>5884.003256</v>
       </c>
       <c r="AZ9" s="1">
-        <v>1.634445</v>
+        <v>1.6344449999999999</v>
       </c>
       <c r="BA9" s="1">
-        <v>1446.330000</v>
+        <v>1446.33</v>
       </c>
       <c r="BB9" s="1">
-        <v>-366.804000</v>
+        <v>-366.80399999999997</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
         <v>5894.969306</v>
@@ -2445,497 +2861,497 @@
         <v>1.637491</v>
       </c>
       <c r="BF9" s="1">
-        <v>1530.540000</v>
+        <v>1530.54</v>
       </c>
       <c r="BG9" s="1">
-        <v>-618.291000</v>
+        <v>-618.29100000000005</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>5906.163515</v>
+        <v>5906.1635150000002</v>
       </c>
       <c r="BJ9" s="1">
         <v>1.640601</v>
       </c>
       <c r="BK9" s="1">
-        <v>1682.940000</v>
+        <v>1682.94</v>
       </c>
       <c r="BL9" s="1">
-        <v>-1071.090000</v>
+        <v>-1071.0899999999999</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>5916.404877</v>
+        <v>5916.4048769999999</v>
       </c>
       <c r="BO9" s="1">
         <v>1.643446</v>
       </c>
       <c r="BP9" s="1">
-        <v>1975.160000</v>
+        <v>1975.16</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-1859.560000</v>
+        <v>-1859.56</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>5926.880880</v>
+        <v>5926.8808799999997</v>
       </c>
       <c r="BT9" s="1">
-        <v>1.646356</v>
+        <v>1.6463559999999999</v>
       </c>
       <c r="BU9" s="1">
-        <v>2360.990000</v>
+        <v>2360.9899999999998</v>
       </c>
       <c r="BV9" s="1">
-        <v>-2771.010000</v>
+        <v>-2771.01</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>5937.616785</v>
+        <v>5937.6167850000002</v>
       </c>
       <c r="BY9" s="1">
         <v>1.649338</v>
       </c>
       <c r="BZ9" s="1">
-        <v>2847.980000</v>
+        <v>2847.98</v>
       </c>
       <c r="CA9" s="1">
-        <v>-3773.740000</v>
+        <v>-3773.74</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>5949.238263</v>
+        <v>5949.2382630000002</v>
       </c>
       <c r="CD9" s="1">
         <v>1.652566</v>
       </c>
       <c r="CE9" s="1">
-        <v>4275.390000</v>
+        <v>4275.3900000000003</v>
       </c>
       <c r="CF9" s="1">
-        <v>-6204.260000</v>
+        <v>-6204.26</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>5778.313203</v>
+        <v>5778.3132029999997</v>
       </c>
       <c r="B10" s="1">
-        <v>1.605087</v>
+        <v>1.6050869999999999</v>
       </c>
       <c r="C10" s="1">
-        <v>1246.420000</v>
+        <v>1246.42</v>
       </c>
       <c r="D10" s="1">
-        <v>-308.031000</v>
+        <v>-308.03100000000001</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>5788.421175</v>
+        <v>5788.4211750000004</v>
       </c>
       <c r="G10" s="1">
-        <v>1.607895</v>
+        <v>1.6078950000000001</v>
       </c>
       <c r="H10" s="1">
-        <v>1271.620000</v>
+        <v>1271.6199999999999</v>
       </c>
       <c r="I10" s="1">
-        <v>-265.311000</v>
+        <v>-265.31099999999998</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>5798.865434</v>
+        <v>5798.8654340000003</v>
       </c>
       <c r="L10" s="1">
-        <v>1.610796</v>
+        <v>1.6107959999999999</v>
       </c>
       <c r="M10" s="1">
-        <v>1306.850000</v>
+        <v>1306.8499999999999</v>
       </c>
       <c r="N10" s="1">
-        <v>-202.695000</v>
+        <v>-202.69499999999999</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>5809.397515</v>
+        <v>5809.3975149999997</v>
       </c>
       <c r="Q10" s="1">
-        <v>1.613722</v>
+        <v>1.6137220000000001</v>
       </c>
       <c r="R10" s="1">
-        <v>1318.140000</v>
+        <v>1318.14</v>
       </c>
       <c r="S10" s="1">
-        <v>-184.593000</v>
+        <v>-184.59299999999999</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>5819.945902</v>
+        <v>5819.9459020000004</v>
       </c>
       <c r="V10" s="1">
         <v>1.616652</v>
       </c>
       <c r="W10" s="1">
-        <v>1331.010000</v>
+        <v>1331.01</v>
       </c>
       <c r="X10" s="1">
-        <v>-171.046000</v>
+        <v>-171.04599999999999</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>5830.171920</v>
+        <v>5830.1719199999998</v>
       </c>
       <c r="AA10" s="1">
-        <v>1.619492</v>
+        <v>1.6194919999999999</v>
       </c>
       <c r="AB10" s="1">
-        <v>1347.990000</v>
+        <v>1347.99</v>
       </c>
       <c r="AC10" s="1">
-        <v>-169.158000</v>
+        <v>-169.15799999999999</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>5840.637538</v>
+        <v>5840.6375379999999</v>
       </c>
       <c r="AF10" s="1">
-        <v>1.622399</v>
+        <v>1.6223989999999999</v>
       </c>
       <c r="AG10" s="1">
-        <v>1360.840000</v>
+        <v>1360.84</v>
       </c>
       <c r="AH10" s="1">
-        <v>-179.013000</v>
+        <v>-179.01300000000001</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>5851.045060</v>
+        <v>5851.0450600000004</v>
       </c>
       <c r="AK10" s="1">
-        <v>1.625290</v>
+        <v>1.6252899999999999</v>
       </c>
       <c r="AL10" s="1">
-        <v>1381.330000</v>
+        <v>1381.33</v>
       </c>
       <c r="AM10" s="1">
-        <v>-209.276000</v>
+        <v>-209.27600000000001</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>5862.101910</v>
+        <v>5862.1019100000003</v>
       </c>
       <c r="AP10" s="1">
-        <v>1.628362</v>
+        <v>1.6283620000000001</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1402.810000</v>
+        <v>1402.81</v>
       </c>
       <c r="AR10" s="1">
-        <v>-253.605000</v>
+        <v>-253.60499999999999</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>5873.220236</v>
+        <v>5873.2202360000001</v>
       </c>
       <c r="AU10" s="1">
-        <v>1.631450</v>
+        <v>1.6314500000000001</v>
       </c>
       <c r="AV10" s="1">
-        <v>1427.160000</v>
+        <v>1427.16</v>
       </c>
       <c r="AW10" s="1">
-        <v>-314.144000</v>
+        <v>-314.14400000000001</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
         <v>5884.363319</v>
       </c>
       <c r="AZ10" s="1">
-        <v>1.634545</v>
+        <v>1.6345449999999999</v>
       </c>
       <c r="BA10" s="1">
-        <v>1446.340000</v>
+        <v>1446.34</v>
       </c>
       <c r="BB10" s="1">
-        <v>-366.842000</v>
+        <v>-366.84199999999998</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>5895.694425</v>
+        <v>5895.6944249999997</v>
       </c>
       <c r="BE10" s="1">
-        <v>1.637693</v>
+        <v>1.6376930000000001</v>
       </c>
       <c r="BF10" s="1">
-        <v>1530.440000</v>
+        <v>1530.44</v>
       </c>
       <c r="BG10" s="1">
-        <v>-618.259000</v>
+        <v>-618.25900000000001</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>5906.568250</v>
+        <v>5906.5682500000003</v>
       </c>
       <c r="BJ10" s="1">
-        <v>1.640713</v>
+        <v>1.6407130000000001</v>
       </c>
       <c r="BK10" s="1">
-        <v>1682.870000</v>
+        <v>1682.87</v>
       </c>
       <c r="BL10" s="1">
-        <v>-1071.000000</v>
+        <v>-1071</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>5916.799693</v>
+        <v>5916.7996929999999</v>
       </c>
       <c r="BO10" s="1">
-        <v>1.643555</v>
+        <v>1.6435550000000001</v>
       </c>
       <c r="BP10" s="1">
-        <v>1975.330000</v>
+        <v>1975.33</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-1859.400000</v>
+        <v>-1859.4</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>5927.311439</v>
+        <v>5927.3114390000001</v>
       </c>
       <c r="BT10" s="1">
-        <v>1.646475</v>
+        <v>1.6464749999999999</v>
       </c>
       <c r="BU10" s="1">
-        <v>2361.320000</v>
+        <v>2361.3200000000002</v>
       </c>
       <c r="BV10" s="1">
-        <v>-2770.980000</v>
+        <v>-2770.98</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>5938.037889</v>
+        <v>5938.0378890000002</v>
       </c>
       <c r="BY10" s="1">
-        <v>1.649455</v>
+        <v>1.6494549999999999</v>
       </c>
       <c r="BZ10" s="1">
-        <v>2848.380000</v>
+        <v>2848.38</v>
       </c>
       <c r="CA10" s="1">
-        <v>-3774.260000</v>
+        <v>-3774.26</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>5950.087201</v>
+        <v>5950.0872010000003</v>
       </c>
       <c r="CD10" s="1">
-        <v>1.652802</v>
+        <v>1.6528020000000001</v>
       </c>
       <c r="CE10" s="1">
-        <v>4286.840000</v>
+        <v>4286.84</v>
       </c>
       <c r="CF10" s="1">
-        <v>-6188.140000</v>
+        <v>-6188.14</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>5778.660403</v>
+        <v>5778.6604029999999</v>
       </c>
       <c r="B11" s="1">
         <v>1.605183</v>
       </c>
       <c r="C11" s="1">
-        <v>1246.360000</v>
+        <v>1246.3599999999999</v>
       </c>
       <c r="D11" s="1">
-        <v>-308.126000</v>
+        <v>-308.12599999999998</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>5788.765398</v>
+        <v>5788.7653979999995</v>
       </c>
       <c r="G11" s="1">
-        <v>1.607990</v>
+        <v>1.60799</v>
       </c>
       <c r="H11" s="1">
-        <v>1272.930000</v>
+        <v>1272.93</v>
       </c>
       <c r="I11" s="1">
-        <v>-265.056000</v>
+        <v>-265.05599999999998</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>5799.209687</v>
+        <v>5799.2096869999996</v>
       </c>
       <c r="L11" s="1">
         <v>1.610892</v>
       </c>
       <c r="M11" s="1">
-        <v>1306.720000</v>
+        <v>1306.72</v>
       </c>
       <c r="N11" s="1">
-        <v>-202.380000</v>
+        <v>-202.38</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>5809.814618</v>
+        <v>5809.8146180000003</v>
       </c>
       <c r="Q11" s="1">
         <v>1.613837</v>
       </c>
       <c r="R11" s="1">
-        <v>1318.170000</v>
+        <v>1318.17</v>
       </c>
       <c r="S11" s="1">
-        <v>-184.658000</v>
+        <v>-184.65799999999999</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>5820.371472</v>
+        <v>5820.3714719999998</v>
       </c>
       <c r="V11" s="1">
-        <v>1.616770</v>
+        <v>1.61677</v>
       </c>
       <c r="W11" s="1">
-        <v>1330.960000</v>
+        <v>1330.96</v>
       </c>
       <c r="X11" s="1">
-        <v>-171.062000</v>
+        <v>-171.06200000000001</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>5830.445742</v>
+        <v>5830.4457419999999</v>
       </c>
       <c r="AA11" s="1">
-        <v>1.619568</v>
+        <v>1.6195679999999999</v>
       </c>
       <c r="AB11" s="1">
-        <v>1348.000000</v>
+        <v>1348</v>
       </c>
       <c r="AC11" s="1">
-        <v>-169.071000</v>
+        <v>-169.071</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>5840.982721</v>
+        <v>5840.9827210000003</v>
       </c>
       <c r="AF11" s="1">
         <v>1.622495</v>
       </c>
       <c r="AG11" s="1">
-        <v>1360.860000</v>
+        <v>1360.86</v>
       </c>
       <c r="AH11" s="1">
-        <v>-179.026000</v>
+        <v>-179.02600000000001</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>5851.397006</v>
+        <v>5851.3970060000001</v>
       </c>
       <c r="AK11" s="1">
-        <v>1.625388</v>
+        <v>1.6253880000000001</v>
       </c>
       <c r="AL11" s="1">
-        <v>1381.300000</v>
+        <v>1381.3</v>
       </c>
       <c r="AM11" s="1">
-        <v>-209.307000</v>
+        <v>-209.30699999999999</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>5862.462762</v>
+        <v>5862.4627620000001</v>
       </c>
       <c r="AP11" s="1">
-        <v>1.628462</v>
+        <v>1.6284620000000001</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1402.840000</v>
+        <v>1402.84</v>
       </c>
       <c r="AR11" s="1">
-        <v>-253.597000</v>
+        <v>-253.59700000000001</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>5873.950842</v>
+        <v>5873.9508420000002</v>
       </c>
       <c r="AU11" s="1">
         <v>1.631653</v>
       </c>
       <c r="AV11" s="1">
-        <v>1427.190000</v>
+        <v>1427.19</v>
       </c>
       <c r="AW11" s="1">
-        <v>-314.180000</v>
+        <v>-314.18</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
         <v>5885.084006</v>
@@ -2944,981 +3360,981 @@
         <v>1.634746</v>
       </c>
       <c r="BA11" s="1">
-        <v>1446.340000</v>
+        <v>1446.34</v>
       </c>
       <c r="BB11" s="1">
-        <v>-366.798000</v>
+        <v>-366.798</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>5896.071384</v>
+        <v>5896.0713839999999</v>
       </c>
       <c r="BE11" s="1">
-        <v>1.637798</v>
+        <v>1.6377980000000001</v>
       </c>
       <c r="BF11" s="1">
-        <v>1530.470000</v>
+        <v>1530.47</v>
       </c>
       <c r="BG11" s="1">
-        <v>-618.274000</v>
+        <v>-618.274</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>5906.943691</v>
+        <v>5906.9436910000004</v>
       </c>
       <c r="BJ11" s="1">
-        <v>1.640818</v>
+        <v>1.6408180000000001</v>
       </c>
       <c r="BK11" s="1">
-        <v>1682.880000</v>
+        <v>1682.88</v>
       </c>
       <c r="BL11" s="1">
-        <v>-1071.140000</v>
+        <v>-1071.1400000000001</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>5917.219308</v>
+        <v>5917.2193079999997</v>
       </c>
       <c r="BO11" s="1">
         <v>1.643672</v>
       </c>
       <c r="BP11" s="1">
-        <v>1975.210000</v>
+        <v>1975.21</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-1859.350000</v>
+        <v>-1859.35</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>5928.044990</v>
+        <v>5928.0449900000003</v>
       </c>
       <c r="BT11" s="1">
         <v>1.646679</v>
       </c>
       <c r="BU11" s="1">
-        <v>2361.340000</v>
+        <v>2361.34</v>
       </c>
       <c r="BV11" s="1">
-        <v>-2770.750000</v>
+        <v>-2770.75</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>5938.827056</v>
+        <v>5938.8270560000001</v>
       </c>
       <c r="BY11" s="1">
-        <v>1.649674</v>
+        <v>1.6496740000000001</v>
       </c>
       <c r="BZ11" s="1">
-        <v>2848.290000</v>
+        <v>2848.29</v>
       </c>
       <c r="CA11" s="1">
-        <v>-3773.910000</v>
+        <v>-3773.91</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>5950.316850</v>
+        <v>5950.3168500000002</v>
       </c>
       <c r="CD11" s="1">
-        <v>1.652866</v>
+        <v>1.6528659999999999</v>
       </c>
       <c r="CE11" s="1">
-        <v>4287.160000</v>
+        <v>4287.16</v>
       </c>
       <c r="CF11" s="1">
-        <v>-6186.560000</v>
+        <v>-6186.56</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>5778.999668</v>
+        <v>5778.9996680000004</v>
       </c>
       <c r="B12" s="1">
         <v>1.605278</v>
       </c>
       <c r="C12" s="1">
-        <v>1246.640000</v>
+        <v>1246.6400000000001</v>
       </c>
       <c r="D12" s="1">
-        <v>-307.834000</v>
+        <v>-307.834</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>5789.183526</v>
+        <v>5789.1835259999998</v>
       </c>
       <c r="G12" s="1">
         <v>1.608107</v>
       </c>
       <c r="H12" s="1">
-        <v>1270.470000</v>
+        <v>1270.47</v>
       </c>
       <c r="I12" s="1">
-        <v>-265.119000</v>
+        <v>-265.11900000000003</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>5799.632249</v>
+        <v>5799.6322490000002</v>
       </c>
       <c r="L12" s="1">
-        <v>1.611009</v>
+        <v>1.6110089999999999</v>
       </c>
       <c r="M12" s="1">
-        <v>1306.810000</v>
+        <v>1306.81</v>
       </c>
       <c r="N12" s="1">
-        <v>-202.982000</v>
+        <v>-202.982</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>5810.113209</v>
+        <v>5810.1132090000001</v>
       </c>
       <c r="Q12" s="1">
-        <v>1.613920</v>
+        <v>1.61392</v>
       </c>
       <c r="R12" s="1">
-        <v>1318.090000</v>
+        <v>1318.09</v>
       </c>
       <c r="S12" s="1">
-        <v>-184.657000</v>
+        <v>-184.65700000000001</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>5820.648237</v>
+        <v>5820.6482370000003</v>
       </c>
       <c r="V12" s="1">
-        <v>1.616847</v>
+        <v>1.6168469999999999</v>
       </c>
       <c r="W12" s="1">
-        <v>1330.990000</v>
+        <v>1330.99</v>
       </c>
       <c r="X12" s="1">
-        <v>-170.983000</v>
+        <v>-170.983</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>5830.795887</v>
+        <v>5830.7958870000002</v>
       </c>
       <c r="AA12" s="1">
-        <v>1.619666</v>
+        <v>1.6196660000000001</v>
       </c>
       <c r="AB12" s="1">
-        <v>1347.980000</v>
+        <v>1347.98</v>
       </c>
       <c r="AC12" s="1">
-        <v>-169.111000</v>
+        <v>-169.11099999999999</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>5841.325456</v>
+        <v>5841.3254559999996</v>
       </c>
       <c r="AF12" s="1">
-        <v>1.622590</v>
+        <v>1.62259</v>
       </c>
       <c r="AG12" s="1">
-        <v>1360.860000</v>
+        <v>1360.86</v>
       </c>
       <c r="AH12" s="1">
-        <v>-179.033000</v>
+        <v>-179.03299999999999</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>5851.742930</v>
+        <v>5851.7429300000003</v>
       </c>
       <c r="AK12" s="1">
-        <v>1.625484</v>
+        <v>1.6254839999999999</v>
       </c>
       <c r="AL12" s="1">
-        <v>1381.300000</v>
+        <v>1381.3</v>
       </c>
       <c r="AM12" s="1">
-        <v>-209.277000</v>
+        <v>-209.27699999999999</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>5863.185139</v>
+        <v>5863.1851390000002</v>
       </c>
       <c r="AP12" s="1">
         <v>1.628663</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1402.830000</v>
+        <v>1402.83</v>
       </c>
       <c r="AR12" s="1">
-        <v>-253.575000</v>
+        <v>-253.57499999999999</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>5874.344133</v>
+        <v>5874.3441329999996</v>
       </c>
       <c r="AU12" s="1">
-        <v>1.631762</v>
+        <v>1.6317619999999999</v>
       </c>
       <c r="AV12" s="1">
-        <v>1427.200000</v>
+        <v>1427.2</v>
       </c>
       <c r="AW12" s="1">
-        <v>-314.144000</v>
+        <v>-314.14400000000001</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>5885.438677</v>
+        <v>5885.4386770000001</v>
       </c>
       <c r="AZ12" s="1">
         <v>1.634844</v>
       </c>
       <c r="BA12" s="1">
-        <v>1446.340000</v>
+        <v>1446.34</v>
       </c>
       <c r="BB12" s="1">
-        <v>-366.809000</v>
+        <v>-366.80900000000003</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>5896.433991</v>
+        <v>5896.4339909999999</v>
       </c>
       <c r="BE12" s="1">
-        <v>1.637898</v>
+        <v>1.6378980000000001</v>
       </c>
       <c r="BF12" s="1">
-        <v>1530.460000</v>
+        <v>1530.46</v>
       </c>
       <c r="BG12" s="1">
-        <v>-618.302000</v>
+        <v>-618.30200000000002</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>5907.622713</v>
+        <v>5907.6227129999997</v>
       </c>
       <c r="BJ12" s="1">
         <v>1.641006</v>
       </c>
       <c r="BK12" s="1">
-        <v>1682.900000</v>
+        <v>1682.9</v>
       </c>
       <c r="BL12" s="1">
-        <v>-1071.140000</v>
+        <v>-1071.1400000000001</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>5917.911259</v>
+        <v>5917.9112590000004</v>
       </c>
       <c r="BO12" s="1">
         <v>1.643864</v>
       </c>
       <c r="BP12" s="1">
-        <v>1975.220000</v>
+        <v>1975.22</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-1859.350000</v>
+        <v>-1859.35</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>5928.187375</v>
+        <v>5928.1873750000004</v>
       </c>
       <c r="BT12" s="1">
         <v>1.646719</v>
       </c>
       <c r="BU12" s="1">
-        <v>2361.410000</v>
+        <v>2361.41</v>
       </c>
       <c r="BV12" s="1">
-        <v>-2770.730000</v>
+        <v>-2770.73</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>5938.943618</v>
+        <v>5938.9436180000002</v>
       </c>
       <c r="BY12" s="1">
         <v>1.649707</v>
       </c>
       <c r="BZ12" s="1">
-        <v>2848.220000</v>
+        <v>2848.22</v>
       </c>
       <c r="CA12" s="1">
-        <v>-3773.810000</v>
+        <v>-3773.81</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>5950.836655</v>
+        <v>5950.8366550000001</v>
       </c>
       <c r="CD12" s="1">
-        <v>1.653010</v>
+        <v>1.6530100000000001</v>
       </c>
       <c r="CE12" s="1">
-        <v>4274.160000</v>
+        <v>4274.16</v>
       </c>
       <c r="CF12" s="1">
-        <v>-6198.640000</v>
+        <v>-6198.64</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>5779.410882</v>
+        <v>5779.4108820000001</v>
       </c>
       <c r="B13" s="1">
-        <v>1.605392</v>
+        <v>1.6053919999999999</v>
       </c>
       <c r="C13" s="1">
-        <v>1246.650000</v>
+        <v>1246.6500000000001</v>
       </c>
       <c r="D13" s="1">
-        <v>-307.770000</v>
+        <v>-307.77</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>5789.459796</v>
+        <v>5789.4597960000001</v>
       </c>
       <c r="G13" s="1">
-        <v>1.608183</v>
+        <v>1.6081829999999999</v>
       </c>
       <c r="H13" s="1">
-        <v>1272.040000</v>
+        <v>1272.04</v>
       </c>
       <c r="I13" s="1">
-        <v>-264.876000</v>
+        <v>-264.87599999999998</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>5799.908055</v>
+        <v>5799.9080549999999</v>
       </c>
       <c r="L13" s="1">
         <v>1.611086</v>
       </c>
       <c r="M13" s="1">
-        <v>1306.310000</v>
+        <v>1306.31</v>
       </c>
       <c r="N13" s="1">
-        <v>-202.494000</v>
+        <v>-202.494</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>5810.461401</v>
+        <v>5810.4614009999996</v>
       </c>
       <c r="Q13" s="1">
         <v>1.614017</v>
       </c>
       <c r="R13" s="1">
-        <v>1318.090000</v>
+        <v>1318.09</v>
       </c>
       <c r="S13" s="1">
-        <v>-184.594000</v>
+        <v>-184.59399999999999</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>5820.993948</v>
+        <v>5820.9939480000003</v>
       </c>
       <c r="V13" s="1">
         <v>1.616943</v>
       </c>
       <c r="W13" s="1">
-        <v>1331.020000</v>
+        <v>1331.02</v>
       </c>
       <c r="X13" s="1">
-        <v>-171.014000</v>
+        <v>-171.01400000000001</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>5831.145103</v>
+        <v>5831.1451029999998</v>
       </c>
       <c r="AA13" s="1">
-        <v>1.619763</v>
+        <v>1.6197630000000001</v>
       </c>
       <c r="AB13" s="1">
-        <v>1348.000000</v>
+        <v>1348</v>
       </c>
       <c r="AC13" s="1">
-        <v>-169.065000</v>
+        <v>-169.065</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>5842.008449</v>
+        <v>5842.0084489999999</v>
       </c>
       <c r="AF13" s="1">
-        <v>1.622780</v>
+        <v>1.6227799999999999</v>
       </c>
       <c r="AG13" s="1">
-        <v>1360.820000</v>
+        <v>1360.82</v>
       </c>
       <c r="AH13" s="1">
-        <v>-179.039000</v>
+        <v>-179.03899999999999</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>5852.440801</v>
+        <v>5852.4408009999997</v>
       </c>
       <c r="AK13" s="1">
         <v>1.625678</v>
       </c>
       <c r="AL13" s="1">
-        <v>1381.340000</v>
+        <v>1381.34</v>
       </c>
       <c r="AM13" s="1">
-        <v>-209.314000</v>
+        <v>-209.31399999999999</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
         <v>5863.570068</v>
       </c>
       <c r="AP13" s="1">
-        <v>1.628769</v>
+        <v>1.6287689999999999</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1402.800000</v>
+        <v>1402.8</v>
       </c>
       <c r="AR13" s="1">
-        <v>-253.570000</v>
+        <v>-253.57</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>5874.709189</v>
+        <v>5874.7091890000002</v>
       </c>
       <c r="AU13" s="1">
         <v>1.631864</v>
       </c>
       <c r="AV13" s="1">
-        <v>1427.180000</v>
+        <v>1427.18</v>
       </c>
       <c r="AW13" s="1">
-        <v>-314.154000</v>
+        <v>-314.154</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>5885.799735</v>
+        <v>5885.7997349999996</v>
       </c>
       <c r="AZ13" s="1">
         <v>1.634944</v>
       </c>
       <c r="BA13" s="1">
-        <v>1446.330000</v>
+        <v>1446.33</v>
       </c>
       <c r="BB13" s="1">
-        <v>-366.810000</v>
+        <v>-366.81</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>5897.103559</v>
+        <v>5897.1035590000001</v>
       </c>
       <c r="BE13" s="1">
-        <v>1.638084</v>
+        <v>1.6380840000000001</v>
       </c>
       <c r="BF13" s="1">
-        <v>1530.480000</v>
+        <v>1530.48</v>
       </c>
       <c r="BG13" s="1">
-        <v>-618.275000</v>
+        <v>-618.27499999999998</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>5907.734313</v>
+        <v>5907.7343129999999</v>
       </c>
       <c r="BJ13" s="1">
-        <v>1.641037</v>
+        <v>1.6410370000000001</v>
       </c>
       <c r="BK13" s="1">
-        <v>1682.890000</v>
+        <v>1682.89</v>
       </c>
       <c r="BL13" s="1">
-        <v>-1071.080000</v>
+        <v>-1071.08</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>5918.055099</v>
+        <v>5918.0550990000002</v>
       </c>
       <c r="BO13" s="1">
         <v>1.643904</v>
       </c>
       <c r="BP13" s="1">
-        <v>1975.220000</v>
+        <v>1975.22</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-1859.390000</v>
+        <v>-1859.39</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>5928.597566</v>
+        <v>5928.5975660000004</v>
       </c>
       <c r="BT13" s="1">
         <v>1.646833</v>
       </c>
       <c r="BU13" s="1">
-        <v>2361.680000</v>
+        <v>2361.6799999999998</v>
       </c>
       <c r="BV13" s="1">
-        <v>-2770.480000</v>
+        <v>-2770.48</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>5939.366671</v>
+        <v>5939.3666709999998</v>
       </c>
       <c r="BY13" s="1">
         <v>1.649824</v>
       </c>
       <c r="BZ13" s="1">
-        <v>2847.690000</v>
+        <v>2847.69</v>
       </c>
       <c r="CA13" s="1">
-        <v>-3774.160000</v>
+        <v>-3774.16</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>5951.356990</v>
+        <v>5951.3569900000002</v>
       </c>
       <c r="CD13" s="1">
-        <v>1.653155</v>
+        <v>1.6531549999999999</v>
       </c>
       <c r="CE13" s="1">
-        <v>4286.410000</v>
+        <v>4286.41</v>
       </c>
       <c r="CF13" s="1">
-        <v>-6209.140000</v>
+        <v>-6209.14</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>5779.701506</v>
+        <v>5779.7015060000003</v>
       </c>
       <c r="B14" s="1">
-        <v>1.605473</v>
+        <v>1.6054729999999999</v>
       </c>
       <c r="C14" s="1">
-        <v>1246.770000</v>
+        <v>1246.77</v>
       </c>
       <c r="D14" s="1">
-        <v>-308.184000</v>
+        <v>-308.18400000000003</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>5789.809478</v>
+        <v>5789.8094780000001</v>
       </c>
       <c r="G14" s="1">
-        <v>1.608280</v>
+        <v>1.6082799999999999</v>
       </c>
       <c r="H14" s="1">
-        <v>1271.320000</v>
+        <v>1271.32</v>
       </c>
       <c r="I14" s="1">
-        <v>-264.448000</v>
+        <v>-264.44799999999998</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>5800.254262</v>
+        <v>5800.2542620000004</v>
       </c>
       <c r="L14" s="1">
-        <v>1.611182</v>
+        <v>1.6111819999999999</v>
       </c>
       <c r="M14" s="1">
-        <v>1306.420000</v>
+        <v>1306.42</v>
       </c>
       <c r="N14" s="1">
-        <v>-202.705000</v>
+        <v>-202.70500000000001</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>5810.809132</v>
+        <v>5810.8091320000003</v>
       </c>
       <c r="Q14" s="1">
         <v>1.614114</v>
       </c>
       <c r="R14" s="1">
-        <v>1318.060000</v>
+        <v>1318.06</v>
       </c>
       <c r="S14" s="1">
-        <v>-184.500000</v>
+        <v>-184.5</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>5821.546491</v>
+        <v>5821.5464910000001</v>
       </c>
       <c r="V14" s="1">
-        <v>1.617096</v>
+        <v>1.6170960000000001</v>
       </c>
       <c r="W14" s="1">
-        <v>1331.040000</v>
+        <v>1331.04</v>
       </c>
       <c r="X14" s="1">
-        <v>-171.078000</v>
+        <v>-171.078</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>5831.836493</v>
+        <v>5831.8364929999998</v>
       </c>
       <c r="AA14" s="1">
         <v>1.619955</v>
       </c>
       <c r="AB14" s="1">
-        <v>1347.980000</v>
+        <v>1347.98</v>
       </c>
       <c r="AC14" s="1">
-        <v>-169.159000</v>
+        <v>-169.15899999999999</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>5842.352671</v>
+        <v>5842.3526709999996</v>
       </c>
       <c r="AF14" s="1">
         <v>1.622876</v>
       </c>
       <c r="AG14" s="1">
-        <v>1360.860000</v>
+        <v>1360.86</v>
       </c>
       <c r="AH14" s="1">
-        <v>-178.989000</v>
+        <v>-178.989</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>5852.788993</v>
+        <v>5852.7889930000001</v>
       </c>
       <c r="AK14" s="1">
         <v>1.625775</v>
       </c>
       <c r="AL14" s="1">
-        <v>1381.310000</v>
+        <v>1381.31</v>
       </c>
       <c r="AM14" s="1">
-        <v>-209.298000</v>
+        <v>-209.298</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>5863.952946</v>
+        <v>5863.9529460000003</v>
       </c>
       <c r="AP14" s="1">
         <v>1.628876</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1402.800000</v>
+        <v>1402.8</v>
       </c>
       <c r="AR14" s="1">
-        <v>-253.558000</v>
+        <v>-253.55799999999999</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>5875.378081</v>
+        <v>5875.3780809999998</v>
       </c>
       <c r="AU14" s="1">
-        <v>1.632049</v>
+        <v>1.6320490000000001</v>
       </c>
       <c r="AV14" s="1">
-        <v>1427.200000</v>
+        <v>1427.2</v>
       </c>
       <c r="AW14" s="1">
-        <v>-314.162000</v>
+        <v>-314.16199999999998</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>5886.456934</v>
+        <v>5886.4569339999998</v>
       </c>
       <c r="AZ14" s="1">
         <v>1.635127</v>
       </c>
       <c r="BA14" s="1">
-        <v>1446.320000</v>
+        <v>1446.32</v>
       </c>
       <c r="BB14" s="1">
-        <v>-366.814000</v>
+        <v>-366.81400000000002</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>5897.541030</v>
+        <v>5897.5410300000003</v>
       </c>
       <c r="BE14" s="1">
-        <v>1.638206</v>
+        <v>1.6382060000000001</v>
       </c>
       <c r="BF14" s="1">
-        <v>1530.500000</v>
+        <v>1530.5</v>
       </c>
       <c r="BG14" s="1">
-        <v>-618.300000</v>
+        <v>-618.29999999999995</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>5908.094936</v>
+        <v>5908.0949360000004</v>
       </c>
       <c r="BJ14" s="1">
-        <v>1.641137</v>
+        <v>1.6411370000000001</v>
       </c>
       <c r="BK14" s="1">
-        <v>1682.950000</v>
+        <v>1682.95</v>
       </c>
       <c r="BL14" s="1">
-        <v>-1071.050000</v>
+        <v>-1071.05</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>5918.462309</v>
+        <v>5918.4623089999995</v>
       </c>
       <c r="BO14" s="1">
-        <v>1.644017</v>
+        <v>1.6440170000000001</v>
       </c>
       <c r="BP14" s="1">
-        <v>1975.130000</v>
+        <v>1975.13</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-1859.350000</v>
+        <v>-1859.35</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>5929.027601</v>
+        <v>5929.0276009999998</v>
       </c>
       <c r="BT14" s="1">
         <v>1.646952</v>
       </c>
       <c r="BU14" s="1">
-        <v>2361.920000</v>
+        <v>2361.92</v>
       </c>
       <c r="BV14" s="1">
-        <v>-2770.410000</v>
+        <v>-2770.41</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
         <v>5939.784302</v>
       </c>
       <c r="BY14" s="1">
-        <v>1.649940</v>
+        <v>1.64994</v>
       </c>
       <c r="BZ14" s="1">
-        <v>2848.610000</v>
+        <v>2848.61</v>
       </c>
       <c r="CA14" s="1">
-        <v>-3773.870000</v>
+        <v>-3773.87</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>5951.872798</v>
+        <v>5951.8727980000003</v>
       </c>
       <c r="CD14" s="1">
-        <v>1.653298</v>
+        <v>1.6532979999999999</v>
       </c>
       <c r="CE14" s="1">
-        <v>4294.840000</v>
+        <v>4294.84</v>
       </c>
       <c r="CF14" s="1">
-        <v>-6197.200000</v>
+        <v>-6197.2</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>5780.039281</v>
+        <v>5780.0392810000003</v>
       </c>
       <c r="B15" s="1">
         <v>1.605566</v>
       </c>
       <c r="C15" s="1">
-        <v>1246.750000</v>
+        <v>1246.75</v>
       </c>
       <c r="D15" s="1">
-        <v>-307.774000</v>
+        <v>-307.774</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>5790.163124</v>
+        <v>5790.1631239999997</v>
       </c>
       <c r="G15" s="1">
         <v>1.608379</v>
       </c>
       <c r="H15" s="1">
-        <v>1271.210000</v>
+        <v>1271.21</v>
       </c>
       <c r="I15" s="1">
-        <v>-265.990000</v>
+        <v>-265.99</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>5800.600934</v>
+        <v>5800.6009340000001</v>
       </c>
       <c r="L15" s="1">
         <v>1.611278</v>
       </c>
       <c r="M15" s="1">
-        <v>1306.510000</v>
+        <v>1306.51</v>
       </c>
       <c r="N15" s="1">
-        <v>-202.383000</v>
+        <v>-202.38300000000001</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>5811.506014</v>
+        <v>5811.5060139999996</v>
       </c>
       <c r="Q15" s="1">
-        <v>1.614307</v>
+        <v>1.6143069999999999</v>
       </c>
       <c r="R15" s="1">
-        <v>1318.220000</v>
+        <v>1318.22</v>
       </c>
       <c r="S15" s="1">
-        <v>-184.549000</v>
+        <v>-184.54900000000001</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>5821.680907</v>
+        <v>5821.6809069999999</v>
       </c>
       <c r="V15" s="1">
-        <v>1.617134</v>
+        <v>1.6171340000000001</v>
       </c>
       <c r="W15" s="1">
-        <v>1330.940000</v>
+        <v>1330.94</v>
       </c>
       <c r="X15" s="1">
-        <v>-171.076000</v>
+        <v>-171.07599999999999</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>5832.188684</v>
+        <v>5832.1886839999997</v>
       </c>
       <c r="AA15" s="1">
         <v>1.620052</v>
       </c>
       <c r="AB15" s="1">
-        <v>1347.920000</v>
+        <v>1347.92</v>
       </c>
       <c r="AC15" s="1">
-        <v>-168.973000</v>
+        <v>-168.97300000000001</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>5842.697886</v>
+        <v>5842.6978859999999</v>
       </c>
       <c r="AF15" s="1">
-        <v>1.622972</v>
+        <v>1.6229720000000001</v>
       </c>
       <c r="AG15" s="1">
-        <v>1360.850000</v>
+        <v>1360.85</v>
       </c>
       <c r="AH15" s="1">
-        <v>-179.077000</v>
+        <v>-179.077</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
         <v>5853.138672</v>
@@ -3927,452 +4343,452 @@
         <v>1.625872</v>
       </c>
       <c r="AL15" s="1">
-        <v>1381.310000</v>
+        <v>1381.31</v>
       </c>
       <c r="AM15" s="1">
-        <v>-209.278000</v>
+        <v>-209.27799999999999</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>5864.616595</v>
+        <v>5864.6165950000004</v>
       </c>
       <c r="AP15" s="1">
-        <v>1.629060</v>
+        <v>1.62906</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1402.820000</v>
+        <v>1402.82</v>
       </c>
       <c r="AR15" s="1">
-        <v>-253.592000</v>
+        <v>-253.59200000000001</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>5875.836130</v>
+        <v>5875.8361299999997</v>
       </c>
       <c r="AU15" s="1">
         <v>1.632177</v>
       </c>
       <c r="AV15" s="1">
-        <v>1427.200000</v>
+        <v>1427.2</v>
       </c>
       <c r="AW15" s="1">
-        <v>-314.134000</v>
+        <v>-314.13400000000001</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>5886.877045</v>
+        <v>5886.8770450000002</v>
       </c>
       <c r="AZ15" s="1">
-        <v>1.635244</v>
+        <v>1.6352439999999999</v>
       </c>
       <c r="BA15" s="1">
-        <v>1446.320000</v>
+        <v>1446.32</v>
       </c>
       <c r="BB15" s="1">
-        <v>-366.802000</v>
+        <v>-366.80200000000002</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>5897.911541</v>
+        <v>5897.9115410000004</v>
       </c>
       <c r="BE15" s="1">
         <v>1.638309</v>
       </c>
       <c r="BF15" s="1">
-        <v>1530.520000</v>
+        <v>1530.52</v>
       </c>
       <c r="BG15" s="1">
-        <v>-618.271000</v>
+        <v>-618.27099999999996</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>5908.471864</v>
+        <v>5908.4718640000001</v>
       </c>
       <c r="BJ15" s="1">
-        <v>1.641242</v>
+        <v>1.6412420000000001</v>
       </c>
       <c r="BK15" s="1">
-        <v>1682.940000</v>
+        <v>1682.94</v>
       </c>
       <c r="BL15" s="1">
-        <v>-1071.120000</v>
+        <v>-1071.1199999999999</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>5918.860074</v>
+        <v>5918.8600740000002</v>
       </c>
       <c r="BO15" s="1">
         <v>1.644128</v>
       </c>
       <c r="BP15" s="1">
-        <v>1975.170000</v>
+        <v>1975.17</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-1859.320000</v>
+        <v>-1859.32</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>5929.445692</v>
+        <v>5929.4456920000002</v>
       </c>
       <c r="BT15" s="1">
         <v>1.647068</v>
       </c>
       <c r="BU15" s="1">
-        <v>2362.200000</v>
+        <v>2362.1999999999998</v>
       </c>
       <c r="BV15" s="1">
-        <v>-2770.430000</v>
+        <v>-2770.43</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>5940.226765</v>
+        <v>5940.2267650000003</v>
       </c>
       <c r="BY15" s="1">
-        <v>1.650063</v>
+        <v>1.6500630000000001</v>
       </c>
       <c r="BZ15" s="1">
-        <v>2848.050000</v>
+        <v>2848.05</v>
       </c>
       <c r="CA15" s="1">
-        <v>-3773.020000</v>
+        <v>-3773.02</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>5952.391613</v>
+        <v>5952.3916129999998</v>
       </c>
       <c r="CD15" s="1">
-        <v>1.653442</v>
+        <v>1.6534420000000001</v>
       </c>
       <c r="CE15" s="1">
-        <v>4296.740000</v>
+        <v>4296.74</v>
       </c>
       <c r="CF15" s="1">
-        <v>-6201.520000</v>
+        <v>-6201.52</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>5780.382513</v>
+        <v>5780.3825129999996</v>
       </c>
       <c r="B16" s="1">
-        <v>1.605662</v>
+        <v>1.6056619999999999</v>
       </c>
       <c r="C16" s="1">
-        <v>1246.520000</v>
+        <v>1246.52</v>
       </c>
       <c r="D16" s="1">
-        <v>-307.974000</v>
+        <v>-307.97399999999999</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>5790.846611</v>
+        <v>5790.8466109999999</v>
       </c>
       <c r="G16" s="1">
-        <v>1.608569</v>
+        <v>1.6085689999999999</v>
       </c>
       <c r="H16" s="1">
-        <v>1271.710000</v>
+        <v>1271.71</v>
       </c>
       <c r="I16" s="1">
-        <v>-265.482000</v>
+        <v>-265.48200000000003</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>5801.289413</v>
+        <v>5801.2894130000004</v>
       </c>
       <c r="L16" s="1">
         <v>1.611469</v>
       </c>
       <c r="M16" s="1">
-        <v>1306.720000</v>
+        <v>1306.72</v>
       </c>
       <c r="N16" s="1">
-        <v>-202.335000</v>
+        <v>-202.33500000000001</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>5811.852712</v>
+        <v>5811.8527119999999</v>
       </c>
       <c r="Q16" s="1">
         <v>1.614404</v>
       </c>
       <c r="R16" s="1">
-        <v>1318.220000</v>
+        <v>1318.22</v>
       </c>
       <c r="S16" s="1">
-        <v>-184.607000</v>
+        <v>-184.607</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>5822.023147</v>
+        <v>5822.0231469999999</v>
       </c>
       <c r="V16" s="1">
         <v>1.617229</v>
       </c>
       <c r="W16" s="1">
-        <v>1330.870000</v>
+        <v>1330.87</v>
       </c>
       <c r="X16" s="1">
-        <v>-171.031000</v>
+        <v>-171.03100000000001</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>5832.539820</v>
+        <v>5832.53982</v>
       </c>
       <c r="AA16" s="1">
-        <v>1.620150</v>
+        <v>1.62015</v>
       </c>
       <c r="AB16" s="1">
-        <v>1347.820000</v>
+        <v>1347.82</v>
       </c>
       <c r="AC16" s="1">
-        <v>-169.096000</v>
+        <v>-169.096</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>5843.347646</v>
+        <v>5843.3476460000002</v>
       </c>
       <c r="AF16" s="1">
-        <v>1.623152</v>
+        <v>1.6231519999999999</v>
       </c>
       <c r="AG16" s="1">
-        <v>1360.770000</v>
+        <v>1360.77</v>
       </c>
       <c r="AH16" s="1">
-        <v>-179.024000</v>
+        <v>-179.024</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>5853.820673</v>
+        <v>5853.8206730000002</v>
       </c>
       <c r="AK16" s="1">
         <v>1.626061</v>
       </c>
       <c r="AL16" s="1">
-        <v>1381.340000</v>
+        <v>1381.34</v>
       </c>
       <c r="AM16" s="1">
-        <v>-209.270000</v>
+        <v>-209.27</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>5865.034225</v>
+        <v>5865.0342250000003</v>
       </c>
       <c r="AP16" s="1">
         <v>1.629176</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1402.810000</v>
+        <v>1402.81</v>
       </c>
       <c r="AR16" s="1">
-        <v>-253.561000</v>
+        <v>-253.56100000000001</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>5876.200658</v>
+        <v>5876.2006579999997</v>
       </c>
       <c r="AU16" s="1">
-        <v>1.632278</v>
+        <v>1.6322779999999999</v>
       </c>
       <c r="AV16" s="1">
-        <v>1427.210000</v>
+        <v>1427.21</v>
       </c>
       <c r="AW16" s="1">
-        <v>-314.148000</v>
+        <v>-314.14800000000002</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>5887.263428</v>
+        <v>5887.2634280000002</v>
       </c>
       <c r="AZ16" s="1">
         <v>1.635351</v>
       </c>
       <c r="BA16" s="1">
-        <v>1446.360000</v>
+        <v>1446.36</v>
       </c>
       <c r="BB16" s="1">
-        <v>-366.752000</v>
+        <v>-366.75200000000001</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>5898.273157</v>
+        <v>5898.2731569999996</v>
       </c>
       <c r="BE16" s="1">
         <v>1.638409</v>
       </c>
       <c r="BF16" s="1">
-        <v>1530.520000</v>
+        <v>1530.52</v>
       </c>
       <c r="BG16" s="1">
-        <v>-618.233000</v>
+        <v>-618.23299999999995</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>5908.888007</v>
+        <v>5908.8880069999996</v>
       </c>
       <c r="BJ16" s="1">
-        <v>1.641358</v>
+        <v>1.6413580000000001</v>
       </c>
       <c r="BK16" s="1">
-        <v>1682.890000</v>
+        <v>1682.89</v>
       </c>
       <c r="BL16" s="1">
-        <v>-1071.010000</v>
+        <v>-1071.01</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>5919.279193</v>
+        <v>5919.2791930000003</v>
       </c>
       <c r="BO16" s="1">
         <v>1.644244</v>
       </c>
       <c r="BP16" s="1">
-        <v>1975.160000</v>
+        <v>1975.16</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-1859.450000</v>
+        <v>-1859.45</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>5929.856576</v>
+        <v>5929.8565760000001</v>
       </c>
       <c r="BT16" s="1">
-        <v>1.647182</v>
+        <v>1.6471819999999999</v>
       </c>
       <c r="BU16" s="1">
-        <v>2362.210000</v>
+        <v>2362.21</v>
       </c>
       <c r="BV16" s="1">
-        <v>-2770.240000</v>
+        <v>-2770.24</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>5940.652334</v>
+        <v>5940.6523340000003</v>
       </c>
       <c r="BY16" s="1">
-        <v>1.650181</v>
+        <v>1.6501809999999999</v>
       </c>
       <c r="BZ16" s="1">
-        <v>2848.150000</v>
+        <v>2848.15</v>
       </c>
       <c r="CA16" s="1">
-        <v>-3773.230000</v>
+        <v>-3773.23</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>5952.944157</v>
+        <v>5952.9441569999999</v>
       </c>
       <c r="CD16" s="1">
-        <v>1.653596</v>
+        <v>1.6535960000000001</v>
       </c>
       <c r="CE16" s="1">
-        <v>4285.840000</v>
+        <v>4285.84</v>
       </c>
       <c r="CF16" s="1">
-        <v>-6208.450000</v>
+        <v>-6208.45</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>5781.065008</v>
+        <v>5781.0650079999996</v>
       </c>
       <c r="B17" s="1">
-        <v>1.605851</v>
+        <v>1.6058509999999999</v>
       </c>
       <c r="C17" s="1">
-        <v>1246.220000</v>
+        <v>1246.22</v>
       </c>
       <c r="D17" s="1">
-        <v>-307.877000</v>
+        <v>-307.87700000000001</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
         <v>5791.191331</v>
       </c>
       <c r="G17" s="1">
-        <v>1.608664</v>
+        <v>1.6086640000000001</v>
       </c>
       <c r="H17" s="1">
-        <v>1271.500000</v>
+        <v>1271.5</v>
       </c>
       <c r="I17" s="1">
-        <v>-264.821000</v>
+        <v>-264.82100000000003</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>5801.638565</v>
+        <v>5801.6385650000002</v>
       </c>
       <c r="L17" s="1">
-        <v>1.611566</v>
+        <v>1.6115660000000001</v>
       </c>
       <c r="M17" s="1">
-        <v>1306.640000</v>
+        <v>1306.6400000000001</v>
       </c>
       <c r="N17" s="1">
-        <v>-202.951000</v>
+        <v>-202.95099999999999</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
         <v>5812.204342</v>
@@ -4381,300 +4797,300 @@
         <v>1.614501</v>
       </c>
       <c r="R17" s="1">
-        <v>1318.170000</v>
+        <v>1318.17</v>
       </c>
       <c r="S17" s="1">
-        <v>-184.651000</v>
+        <v>-184.65100000000001</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>5822.671913</v>
+        <v>5822.6719130000001</v>
       </c>
       <c r="V17" s="1">
-        <v>1.617409</v>
+        <v>1.6174090000000001</v>
       </c>
       <c r="W17" s="1">
-        <v>1331.070000</v>
+        <v>1331.07</v>
       </c>
       <c r="X17" s="1">
-        <v>-171.045000</v>
+        <v>-171.04499999999999</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>5833.200491</v>
+        <v>5833.2004909999996</v>
       </c>
       <c r="AA17" s="1">
         <v>1.620333</v>
       </c>
       <c r="AB17" s="1">
-        <v>1348.120000</v>
+        <v>1348.12</v>
       </c>
       <c r="AC17" s="1">
-        <v>-169.113000</v>
+        <v>-169.113</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
         <v>5843.727613</v>
       </c>
       <c r="AF17" s="1">
-        <v>1.623258</v>
+        <v>1.6232580000000001</v>
       </c>
       <c r="AG17" s="1">
-        <v>1360.800000</v>
+        <v>1360.8</v>
       </c>
       <c r="AH17" s="1">
-        <v>-178.988000</v>
+        <v>-178.988</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>5854.181792</v>
+        <v>5854.1817920000003</v>
       </c>
       <c r="AK17" s="1">
-        <v>1.626162</v>
+        <v>1.6261620000000001</v>
       </c>
       <c r="AL17" s="1">
-        <v>1381.370000</v>
+        <v>1381.37</v>
       </c>
       <c r="AM17" s="1">
-        <v>-209.271000</v>
+        <v>-209.27099999999999</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>5865.420609</v>
+        <v>5865.4206089999998</v>
       </c>
       <c r="AP17" s="1">
         <v>1.629284</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1402.790000</v>
+        <v>1402.79</v>
       </c>
       <c r="AR17" s="1">
-        <v>-253.585000</v>
+        <v>-253.58500000000001</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>5876.565714</v>
+        <v>5876.5657140000003</v>
       </c>
       <c r="AU17" s="1">
         <v>1.632379</v>
       </c>
       <c r="AV17" s="1">
-        <v>1427.190000</v>
+        <v>1427.19</v>
       </c>
       <c r="AW17" s="1">
-        <v>-314.153000</v>
+        <v>-314.15300000000002</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>5887.617075</v>
+        <v>5887.6170750000001</v>
       </c>
       <c r="AZ17" s="1">
-        <v>1.635449</v>
+        <v>1.6354489999999999</v>
       </c>
       <c r="BA17" s="1">
-        <v>1446.320000</v>
+        <v>1446.32</v>
       </c>
       <c r="BB17" s="1">
-        <v>-366.782000</v>
+        <v>-366.78199999999998</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>5898.694758</v>
+        <v>5898.6947579999996</v>
       </c>
       <c r="BE17" s="1">
-        <v>1.638526</v>
+        <v>1.6385259999999999</v>
       </c>
       <c r="BF17" s="1">
-        <v>1530.490000</v>
+        <v>1530.49</v>
       </c>
       <c r="BG17" s="1">
-        <v>-618.281000</v>
+        <v>-618.28099999999995</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>5909.222311</v>
+        <v>5909.2223110000004</v>
       </c>
       <c r="BJ17" s="1">
         <v>1.641451</v>
       </c>
       <c r="BK17" s="1">
-        <v>1682.940000</v>
+        <v>1682.94</v>
       </c>
       <c r="BL17" s="1">
-        <v>-1071.040000</v>
+        <v>-1071.04</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>5919.677977</v>
+        <v>5919.6779770000003</v>
       </c>
       <c r="BO17" s="1">
         <v>1.644355</v>
       </c>
       <c r="BP17" s="1">
-        <v>1975.160000</v>
+        <v>1975.16</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-1859.280000</v>
+        <v>-1859.28</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
         <v>5930.272524</v>
       </c>
       <c r="BT17" s="1">
-        <v>1.647298</v>
+        <v>1.6472979999999999</v>
       </c>
       <c r="BU17" s="1">
-        <v>2362.350000</v>
+        <v>2362.35</v>
       </c>
       <c r="BV17" s="1">
-        <v>-2770.380000</v>
+        <v>-2770.38</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>5941.075885</v>
+        <v>5941.0758850000002</v>
       </c>
       <c r="BY17" s="1">
         <v>1.650299</v>
       </c>
       <c r="BZ17" s="1">
-        <v>2848.090000</v>
+        <v>2848.09</v>
       </c>
       <c r="CA17" s="1">
-        <v>-3773.350000</v>
+        <v>-3773.35</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>5953.472924</v>
+        <v>5953.4729239999997</v>
       </c>
       <c r="CD17" s="1">
         <v>1.653742</v>
       </c>
       <c r="CE17" s="1">
-        <v>4294.850000</v>
+        <v>4294.8500000000004</v>
       </c>
       <c r="CF17" s="1">
-        <v>-6196.890000</v>
+        <v>-6196.89</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>5781.409727</v>
+        <v>5781.4097270000002</v>
       </c>
       <c r="B18" s="1">
         <v>1.605947</v>
       </c>
       <c r="C18" s="1">
-        <v>1246.710000</v>
+        <v>1246.71</v>
       </c>
       <c r="D18" s="1">
-        <v>-308.333000</v>
+        <v>-308.33300000000003</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>5791.536579</v>
+        <v>5791.5365789999996</v>
       </c>
       <c r="G18" s="1">
-        <v>1.608760</v>
+        <v>1.60876</v>
       </c>
       <c r="H18" s="1">
-        <v>1271.870000</v>
+        <v>1271.8699999999999</v>
       </c>
       <c r="I18" s="1">
-        <v>-265.737000</v>
+        <v>-265.73700000000002</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
         <v>5801.985764</v>
       </c>
       <c r="L18" s="1">
-        <v>1.611663</v>
+        <v>1.6116630000000001</v>
       </c>
       <c r="M18" s="1">
-        <v>1306.700000</v>
+        <v>1306.7</v>
       </c>
       <c r="N18" s="1">
-        <v>-202.640000</v>
+        <v>-202.64</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>5812.874967</v>
+        <v>5812.8749669999997</v>
       </c>
       <c r="Q18" s="1">
         <v>1.614687</v>
       </c>
       <c r="R18" s="1">
-        <v>1318.050000</v>
+        <v>1318.05</v>
       </c>
       <c r="S18" s="1">
-        <v>-184.606000</v>
+        <v>-184.60599999999999</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>5823.054328</v>
+        <v>5823.0543280000002</v>
       </c>
       <c r="V18" s="1">
         <v>1.617515</v>
       </c>
       <c r="W18" s="1">
-        <v>1330.870000</v>
+        <v>1330.87</v>
       </c>
       <c r="X18" s="1">
-        <v>-171.084000</v>
+        <v>-171.084</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>5833.584890</v>
+        <v>5833.5848900000001</v>
       </c>
       <c r="AA18" s="1">
-        <v>1.620440</v>
+        <v>1.6204400000000001</v>
       </c>
       <c r="AB18" s="1">
-        <v>1348.000000</v>
+        <v>1348</v>
       </c>
       <c r="AC18" s="1">
-        <v>-169.112000</v>
+        <v>-169.11199999999999</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
         <v>5844.062414</v>
@@ -4683,405 +5099,405 @@
         <v>1.623351</v>
       </c>
       <c r="AG18" s="1">
-        <v>1360.830000</v>
+        <v>1360.83</v>
       </c>
       <c r="AH18" s="1">
-        <v>-179.005000</v>
+        <v>-179.005</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
         <v>5854.531935</v>
       </c>
       <c r="AK18" s="1">
-        <v>1.626259</v>
+        <v>1.6262589999999999</v>
       </c>
       <c r="AL18" s="1">
-        <v>1381.310000</v>
+        <v>1381.31</v>
       </c>
       <c r="AM18" s="1">
-        <v>-209.298000</v>
+        <v>-209.298</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>5865.780705</v>
+        <v>5865.7807050000001</v>
       </c>
       <c r="AP18" s="1">
-        <v>1.629384</v>
+        <v>1.6293839999999999</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1402.850000</v>
+        <v>1402.85</v>
       </c>
       <c r="AR18" s="1">
-        <v>-253.593000</v>
+        <v>-253.59299999999999</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>5876.981857</v>
+        <v>5876.9818569999998</v>
       </c>
       <c r="AU18" s="1">
         <v>1.632495</v>
       </c>
       <c r="AV18" s="1">
-        <v>1427.180000</v>
+        <v>1427.18</v>
       </c>
       <c r="AW18" s="1">
-        <v>-314.125000</v>
+        <v>-314.125</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>5888.074387</v>
+        <v>5888.0743869999997</v>
       </c>
       <c r="AZ18" s="1">
-        <v>1.635576</v>
+        <v>1.6355759999999999</v>
       </c>
       <c r="BA18" s="1">
-        <v>1446.350000</v>
+        <v>1446.35</v>
       </c>
       <c r="BB18" s="1">
-        <v>-366.766000</v>
+        <v>-366.76600000000002</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>5898.992829</v>
+        <v>5898.9928289999998</v>
       </c>
       <c r="BE18" s="1">
         <v>1.638609</v>
       </c>
       <c r="BF18" s="1">
-        <v>1530.460000</v>
+        <v>1530.46</v>
       </c>
       <c r="BG18" s="1">
-        <v>-618.236000</v>
+        <v>-618.23599999999999</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>5909.616631</v>
+        <v>5909.6166309999999</v>
       </c>
       <c r="BJ18" s="1">
-        <v>1.641560</v>
+        <v>1.6415599999999999</v>
       </c>
       <c r="BK18" s="1">
-        <v>1683.000000</v>
+        <v>1683</v>
       </c>
       <c r="BL18" s="1">
-        <v>-1071.020000</v>
+        <v>-1071.02</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>5920.098585</v>
+        <v>5920.0985849999997</v>
       </c>
       <c r="BO18" s="1">
-        <v>1.644472</v>
+        <v>1.6444719999999999</v>
       </c>
       <c r="BP18" s="1">
-        <v>1975.180000</v>
+        <v>1975.18</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-1859.260000</v>
+        <v>-1859.26</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>5930.688171</v>
+        <v>5930.6881709999998</v>
       </c>
       <c r="BT18" s="1">
         <v>1.647413</v>
       </c>
       <c r="BU18" s="1">
-        <v>2362.440000</v>
+        <v>2362.44</v>
       </c>
       <c r="BV18" s="1">
-        <v>-2770.470000</v>
+        <v>-2770.47</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>5941.524268</v>
+        <v>5941.5242680000001</v>
       </c>
       <c r="BY18" s="1">
         <v>1.650423</v>
       </c>
       <c r="BZ18" s="1">
-        <v>2847.980000</v>
+        <v>2847.98</v>
       </c>
       <c r="CA18" s="1">
-        <v>-3774.250000</v>
+        <v>-3774.25</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>5953.991739</v>
+        <v>5953.9917390000001</v>
       </c>
       <c r="CD18" s="1">
-        <v>1.653887</v>
+        <v>1.6538870000000001</v>
       </c>
       <c r="CE18" s="1">
-        <v>4273.870000</v>
+        <v>4273.87</v>
       </c>
       <c r="CF18" s="1">
-        <v>-6194.860000</v>
+        <v>-6194.86</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>5781.751967</v>
+        <v>5781.7519670000001</v>
       </c>
       <c r="B19" s="1">
         <v>1.606042</v>
       </c>
       <c r="C19" s="1">
-        <v>1246.450000</v>
+        <v>1246.45</v>
       </c>
       <c r="D19" s="1">
-        <v>-307.893000</v>
+        <v>-307.89299999999997</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>5792.183329</v>
+        <v>5792.1833290000004</v>
       </c>
       <c r="G19" s="1">
-        <v>1.608940</v>
+        <v>1.60894</v>
       </c>
       <c r="H19" s="1">
-        <v>1271.030000</v>
+        <v>1271.03</v>
       </c>
       <c r="I19" s="1">
-        <v>-265.118000</v>
+        <v>-265.11799999999999</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>5802.629076</v>
+        <v>5802.6290760000002</v>
       </c>
       <c r="L19" s="1">
-        <v>1.611841</v>
+        <v>1.6118410000000001</v>
       </c>
       <c r="M19" s="1">
-        <v>1306.740000</v>
+        <v>1306.74</v>
       </c>
       <c r="N19" s="1">
-        <v>-202.211000</v>
+        <v>-202.21100000000001</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>5813.248428</v>
+        <v>5813.2484279999999</v>
       </c>
       <c r="Q19" s="1">
-        <v>1.614791</v>
+        <v>1.6147910000000001</v>
       </c>
       <c r="R19" s="1">
-        <v>1318.080000</v>
+        <v>1318.08</v>
       </c>
       <c r="S19" s="1">
-        <v>-184.528000</v>
+        <v>-184.52799999999999</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>5823.402061</v>
+        <v>5823.4020609999998</v>
       </c>
       <c r="V19" s="1">
         <v>1.617612</v>
       </c>
       <c r="W19" s="1">
-        <v>1331.010000</v>
+        <v>1331.01</v>
       </c>
       <c r="X19" s="1">
-        <v>-171.108000</v>
+        <v>-171.108</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>5833.931796</v>
+        <v>5833.9317959999998</v>
       </c>
       <c r="AA19" s="1">
-        <v>1.620537</v>
+        <v>1.6205369999999999</v>
       </c>
       <c r="AB19" s="1">
-        <v>1347.940000</v>
+        <v>1347.94</v>
       </c>
       <c r="AC19" s="1">
-        <v>-168.916000</v>
+        <v>-168.916</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>5844.419004</v>
+        <v>5844.4190040000003</v>
       </c>
       <c r="AF19" s="1">
-        <v>1.623450</v>
+        <v>1.6234500000000001</v>
       </c>
       <c r="AG19" s="1">
-        <v>1360.880000</v>
+        <v>1360.88</v>
       </c>
       <c r="AH19" s="1">
-        <v>-179.026000</v>
+        <v>-179.02600000000001</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>5855.200574</v>
+        <v>5855.2005740000004</v>
       </c>
       <c r="AK19" s="1">
-        <v>1.626445</v>
+        <v>1.6264449999999999</v>
       </c>
       <c r="AL19" s="1">
-        <v>1381.310000</v>
+        <v>1381.31</v>
       </c>
       <c r="AM19" s="1">
-        <v>-209.368000</v>
+        <v>-209.36799999999999</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>5866.212080</v>
+        <v>5866.2120800000002</v>
       </c>
       <c r="AP19" s="1">
-        <v>1.629503</v>
+        <v>1.6295029999999999</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1402.840000</v>
+        <v>1402.84</v>
       </c>
       <c r="AR19" s="1">
-        <v>-253.578000</v>
+        <v>-253.578</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>5877.294837</v>
+        <v>5877.2948370000004</v>
       </c>
       <c r="AU19" s="1">
         <v>1.632582</v>
       </c>
       <c r="AV19" s="1">
-        <v>1427.180000</v>
+        <v>1427.18</v>
       </c>
       <c r="AW19" s="1">
-        <v>-314.161000</v>
+        <v>-314.161</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>5888.337763</v>
+        <v>5888.3377630000005</v>
       </c>
       <c r="AZ19" s="1">
-        <v>1.635649</v>
+        <v>1.6356489999999999</v>
       </c>
       <c r="BA19" s="1">
-        <v>1446.330000</v>
+        <v>1446.33</v>
       </c>
       <c r="BB19" s="1">
-        <v>-366.798000</v>
+        <v>-366.798</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>5899.358391</v>
+        <v>5899.3583909999998</v>
       </c>
       <c r="BE19" s="1">
         <v>1.638711</v>
       </c>
       <c r="BF19" s="1">
-        <v>1530.500000</v>
+        <v>1530.5</v>
       </c>
       <c r="BG19" s="1">
-        <v>-618.232000</v>
+        <v>-618.23199999999997</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>5909.994085</v>
+        <v>5909.9940850000003</v>
       </c>
       <c r="BJ19" s="1">
-        <v>1.641665</v>
+        <v>1.6416649999999999</v>
       </c>
       <c r="BK19" s="1">
-        <v>1682.920000</v>
+        <v>1682.92</v>
       </c>
       <c r="BL19" s="1">
-        <v>-1071.050000</v>
+        <v>-1071.05</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>5920.496377</v>
+        <v>5920.4963770000004</v>
       </c>
       <c r="BO19" s="1">
         <v>1.644582</v>
       </c>
       <c r="BP19" s="1">
-        <v>1975.180000</v>
+        <v>1975.18</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-1859.280000</v>
+        <v>-1859.28</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>5931.126635</v>
+        <v>5931.1266349999996</v>
       </c>
       <c r="BT19" s="1">
         <v>1.647535</v>
       </c>
       <c r="BU19" s="1">
-        <v>2362.350000</v>
+        <v>2362.35</v>
       </c>
       <c r="BV19" s="1">
-        <v>-2769.860000</v>
+        <v>-2769.86</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>5941.953339</v>
+        <v>5941.9533389999997</v>
       </c>
       <c r="BY19" s="1">
-        <v>1.650543</v>
+        <v>1.6505430000000001</v>
       </c>
       <c r="BZ19" s="1">
-        <v>2848.510000</v>
+        <v>2848.51</v>
       </c>
       <c r="CA19" s="1">
-        <v>-3773.860000</v>
+        <v>-3773.86</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
         <v>5954.532346</v>
@@ -5090,559 +5506,559 @@
         <v>1.654037</v>
       </c>
       <c r="CE19" s="1">
-        <v>4296.340000</v>
+        <v>4296.34</v>
       </c>
       <c r="CF19" s="1">
-        <v>-6206.940000</v>
+        <v>-6206.94</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>5782.392303</v>
+        <v>5782.3923029999996</v>
       </c>
       <c r="B20" s="1">
-        <v>1.606220</v>
+        <v>1.60622</v>
       </c>
       <c r="C20" s="1">
-        <v>1246.250000</v>
+        <v>1246.25</v>
       </c>
       <c r="D20" s="1">
-        <v>-308.385000</v>
+        <v>-308.38499999999999</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>5792.568857</v>
+        <v>5792.5688570000002</v>
       </c>
       <c r="G20" s="1">
-        <v>1.609047</v>
+        <v>1.6090469999999999</v>
       </c>
       <c r="H20" s="1">
-        <v>1271.450000</v>
+        <v>1271.45</v>
       </c>
       <c r="I20" s="1">
-        <v>-265.721000</v>
+        <v>-265.721</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>5803.022403</v>
+        <v>5803.0224029999999</v>
       </c>
       <c r="L20" s="1">
-        <v>1.611951</v>
+        <v>1.6119509999999999</v>
       </c>
       <c r="M20" s="1">
-        <v>1306.360000</v>
+        <v>1306.3599999999999</v>
       </c>
       <c r="N20" s="1">
-        <v>-202.763000</v>
+        <v>-202.76300000000001</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>5813.600425</v>
+        <v>5813.6004249999996</v>
       </c>
       <c r="Q20" s="1">
         <v>1.614889</v>
       </c>
       <c r="R20" s="1">
-        <v>1318.100000</v>
+        <v>1318.1</v>
       </c>
       <c r="S20" s="1">
-        <v>-184.500000</v>
+        <v>-184.5</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>5823.747767</v>
+        <v>5823.7477669999998</v>
       </c>
       <c r="V20" s="1">
-        <v>1.617708</v>
+        <v>1.6177079999999999</v>
       </c>
       <c r="W20" s="1">
-        <v>1330.970000</v>
+        <v>1330.97</v>
       </c>
       <c r="X20" s="1">
-        <v>-171.159000</v>
+        <v>-171.15899999999999</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>5834.281945</v>
+        <v>5834.2819449999997</v>
       </c>
       <c r="AA20" s="1">
-        <v>1.620634</v>
+        <v>1.6206339999999999</v>
       </c>
       <c r="AB20" s="1">
-        <v>1348.010000</v>
+        <v>1348.01</v>
       </c>
       <c r="AC20" s="1">
-        <v>-169.108000</v>
+        <v>-169.108</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>5844.836635</v>
+        <v>5844.8366349999997</v>
       </c>
       <c r="AF20" s="1">
-        <v>1.623566</v>
+        <v>1.6235660000000001</v>
       </c>
       <c r="AG20" s="1">
-        <v>1360.800000</v>
+        <v>1360.8</v>
       </c>
       <c r="AH20" s="1">
-        <v>-179.021000</v>
+        <v>-179.02099999999999</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>5855.584477</v>
+        <v>5855.5844770000003</v>
       </c>
       <c r="AK20" s="1">
-        <v>1.626551</v>
+        <v>1.6265510000000001</v>
       </c>
       <c r="AL20" s="1">
-        <v>1381.330000</v>
+        <v>1381.33</v>
       </c>
       <c r="AM20" s="1">
-        <v>-209.319000</v>
+        <v>-209.31899999999999</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>5866.501392</v>
+        <v>5866.5013920000001</v>
       </c>
       <c r="AP20" s="1">
-        <v>1.629584</v>
+        <v>1.6295839999999999</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1402.810000</v>
+        <v>1402.81</v>
       </c>
       <c r="AR20" s="1">
-        <v>-253.561000</v>
+        <v>-253.56100000000001</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>5877.659424</v>
+        <v>5877.6594240000004</v>
       </c>
       <c r="AU20" s="1">
-        <v>1.632683</v>
+        <v>1.6326830000000001</v>
       </c>
       <c r="AV20" s="1">
-        <v>1427.180000</v>
+        <v>1427.18</v>
       </c>
       <c r="AW20" s="1">
-        <v>-314.120000</v>
+        <v>-314.12</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>5888.695905</v>
+        <v>5888.6959049999996</v>
       </c>
       <c r="AZ20" s="1">
-        <v>1.635749</v>
+        <v>1.6357489999999999</v>
       </c>
       <c r="BA20" s="1">
-        <v>1446.350000</v>
+        <v>1446.35</v>
       </c>
       <c r="BB20" s="1">
-        <v>-366.765000</v>
+        <v>-366.76499999999999</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>5899.718963</v>
+        <v>5899.7189630000003</v>
       </c>
       <c r="BE20" s="1">
         <v>1.638811</v>
       </c>
       <c r="BF20" s="1">
-        <v>1530.450000</v>
+        <v>1530.45</v>
       </c>
       <c r="BG20" s="1">
-        <v>-618.242000</v>
+        <v>-618.24199999999996</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>5910.747509</v>
+        <v>5910.7475089999998</v>
       </c>
       <c r="BJ20" s="1">
-        <v>1.641874</v>
+        <v>1.6418740000000001</v>
       </c>
       <c r="BK20" s="1">
-        <v>1682.940000</v>
+        <v>1682.94</v>
       </c>
       <c r="BL20" s="1">
-        <v>-1070.980000</v>
+        <v>-1070.98</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>5920.914999</v>
+        <v>5920.9149989999996</v>
       </c>
       <c r="BO20" s="1">
-        <v>1.644699</v>
+        <v>1.6446989999999999</v>
       </c>
       <c r="BP20" s="1">
-        <v>1975.150000</v>
+        <v>1975.15</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-1859.430000</v>
+        <v>-1859.43</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>5931.553689</v>
+        <v>5931.5536890000003</v>
       </c>
       <c r="BT20" s="1">
         <v>1.647654</v>
       </c>
       <c r="BU20" s="1">
-        <v>2362.660000</v>
+        <v>2362.66</v>
       </c>
       <c r="BV20" s="1">
-        <v>-2770.270000</v>
+        <v>-2770.27</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>5942.378875</v>
+        <v>5942.3788750000003</v>
       </c>
       <c r="BY20" s="1">
-        <v>1.650661</v>
+        <v>1.6506609999999999</v>
       </c>
       <c r="BZ20" s="1">
-        <v>2847.540000</v>
+        <v>2847.54</v>
       </c>
       <c r="CA20" s="1">
-        <v>-3772.920000</v>
+        <v>-3772.92</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>5955.071002</v>
+        <v>5955.0710019999997</v>
       </c>
       <c r="CD20" s="1">
-        <v>1.654186</v>
+        <v>1.6541859999999999</v>
       </c>
       <c r="CE20" s="1">
-        <v>4283.240000</v>
+        <v>4283.24</v>
       </c>
       <c r="CF20" s="1">
-        <v>-6188.010000</v>
+        <v>-6188.01</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>5782.773726</v>
+        <v>5782.7737260000004</v>
       </c>
       <c r="B21" s="1">
-        <v>1.606326</v>
+        <v>1.6063259999999999</v>
       </c>
       <c r="C21" s="1">
-        <v>1246.330000</v>
+        <v>1246.33</v>
       </c>
       <c r="D21" s="1">
-        <v>-307.864000</v>
+        <v>-307.86399999999998</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>5792.914433</v>
+        <v>5792.9144329999999</v>
       </c>
       <c r="G21" s="1">
         <v>1.609143</v>
       </c>
       <c r="H21" s="1">
-        <v>1271.720000</v>
+        <v>1271.72</v>
       </c>
       <c r="I21" s="1">
-        <v>-265.845000</v>
+        <v>-265.84500000000003</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>5803.367754</v>
+        <v>5803.3677539999999</v>
       </c>
       <c r="L21" s="1">
         <v>1.612047</v>
       </c>
       <c r="M21" s="1">
-        <v>1306.890000</v>
+        <v>1306.8900000000001</v>
       </c>
       <c r="N21" s="1">
-        <v>-202.805000</v>
+        <v>-202.80500000000001</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>5813.945828</v>
+        <v>5813.9458279999999</v>
       </c>
       <c r="Q21" s="1">
-        <v>1.614985</v>
+        <v>1.6149849999999999</v>
       </c>
       <c r="R21" s="1">
-        <v>1318.200000</v>
+        <v>1318.2</v>
       </c>
       <c r="S21" s="1">
-        <v>-184.523000</v>
+        <v>-184.523</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>5824.173317</v>
+        <v>5824.1733169999998</v>
       </c>
       <c r="V21" s="1">
         <v>1.617826</v>
       </c>
       <c r="W21" s="1">
-        <v>1330.970000</v>
+        <v>1330.97</v>
       </c>
       <c r="X21" s="1">
-        <v>-171.063000</v>
+        <v>-171.06299999999999</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>5834.705849</v>
+        <v>5834.7058489999999</v>
       </c>
       <c r="AA21" s="1">
         <v>1.620752</v>
       </c>
       <c r="AB21" s="1">
-        <v>1348.140000</v>
+        <v>1348.14</v>
       </c>
       <c r="AC21" s="1">
-        <v>-169.206000</v>
+        <v>-169.20599999999999</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>5845.126795</v>
+        <v>5845.1267950000001</v>
       </c>
       <c r="AF21" s="1">
-        <v>1.623646</v>
+        <v>1.6236459999999999</v>
       </c>
       <c r="AG21" s="1">
-        <v>1360.810000</v>
+        <v>1360.81</v>
       </c>
       <c r="AH21" s="1">
-        <v>-179.094000</v>
+        <v>-179.09399999999999</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>5855.933630</v>
+        <v>5855.9336300000004</v>
       </c>
       <c r="AK21" s="1">
-        <v>1.626648</v>
+        <v>1.6266480000000001</v>
       </c>
       <c r="AL21" s="1">
-        <v>1381.300000</v>
+        <v>1381.3</v>
       </c>
       <c r="AM21" s="1">
-        <v>-209.265000</v>
+        <v>-209.26499999999999</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>5866.862224</v>
+        <v>5866.8622240000004</v>
       </c>
       <c r="AP21" s="1">
-        <v>1.629684</v>
+        <v>1.6296839999999999</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1402.830000</v>
+        <v>1402.83</v>
       </c>
       <c r="AR21" s="1">
-        <v>-253.542000</v>
+        <v>-253.542</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>5878.023952</v>
+        <v>5878.0239519999996</v>
       </c>
       <c r="AU21" s="1">
         <v>1.632784</v>
       </c>
       <c r="AV21" s="1">
-        <v>1427.190000</v>
+        <v>1427.19</v>
       </c>
       <c r="AW21" s="1">
-        <v>-314.134000</v>
+        <v>-314.13400000000001</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>5889.416066</v>
+        <v>5889.4160659999998</v>
       </c>
       <c r="AZ21" s="1">
-        <v>1.635949</v>
+        <v>1.6359490000000001</v>
       </c>
       <c r="BA21" s="1">
-        <v>1446.320000</v>
+        <v>1446.32</v>
       </c>
       <c r="BB21" s="1">
-        <v>-366.786000</v>
+        <v>-366.786</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>5900.440183</v>
+        <v>5900.4401829999997</v>
       </c>
       <c r="BE21" s="1">
         <v>1.639011</v>
       </c>
       <c r="BF21" s="1">
-        <v>1530.490000</v>
+        <v>1530.49</v>
       </c>
       <c r="BG21" s="1">
-        <v>-618.224000</v>
+        <v>-618.22400000000005</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>5911.122019</v>
+        <v>5911.1220190000004</v>
       </c>
       <c r="BJ21" s="1">
-        <v>1.641978</v>
+        <v>1.6419779999999999</v>
       </c>
       <c r="BK21" s="1">
-        <v>1682.970000</v>
+        <v>1682.97</v>
       </c>
       <c r="BL21" s="1">
-        <v>-1070.960000</v>
+        <v>-1070.96</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>5921.312333</v>
+        <v>5921.3123329999999</v>
       </c>
       <c r="BO21" s="1">
         <v>1.644809</v>
       </c>
       <c r="BP21" s="1">
-        <v>1975.070000</v>
+        <v>1975.07</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-1859.040000</v>
+        <v>-1859.04</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>5931.962426</v>
+        <v>5931.9624260000001</v>
       </c>
       <c r="BT21" s="1">
         <v>1.647767</v>
       </c>
       <c r="BU21" s="1">
-        <v>2362.730000</v>
+        <v>2362.73</v>
       </c>
       <c r="BV21" s="1">
-        <v>-2769.940000</v>
+        <v>-2769.94</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>5943.103034</v>
+        <v>5943.1030339999998</v>
       </c>
       <c r="BY21" s="1">
-        <v>1.650862</v>
+        <v>1.6508620000000001</v>
       </c>
       <c r="BZ21" s="1">
-        <v>2847.550000</v>
+        <v>2847.55</v>
       </c>
       <c r="CA21" s="1">
-        <v>-3773.680000</v>
+        <v>-3773.68</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>5955.960366</v>
+        <v>5955.9603660000002</v>
       </c>
       <c r="CD21" s="1">
         <v>1.654433</v>
       </c>
       <c r="CE21" s="1">
-        <v>4295.720000</v>
+        <v>4295.72</v>
       </c>
       <c r="CF21" s="1">
-        <v>-6200.090000</v>
+        <v>-6200.09</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>5783.118445</v>
+        <v>5783.1184450000001</v>
       </c>
       <c r="B22" s="1">
         <v>1.606422</v>
       </c>
       <c r="C22" s="1">
-        <v>1246.710000</v>
+        <v>1246.71</v>
       </c>
       <c r="D22" s="1">
-        <v>-307.686000</v>
+        <v>-307.68599999999998</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>5793.257664</v>
+        <v>5793.2576639999997</v>
       </c>
       <c r="G22" s="1">
-        <v>1.609238</v>
+        <v>1.6092379999999999</v>
       </c>
       <c r="H22" s="1">
-        <v>1270.940000</v>
+        <v>1270.94</v>
       </c>
       <c r="I22" s="1">
-        <v>-266.093000</v>
+        <v>-266.09300000000002</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
         <v>5803.711346</v>
@@ -5651,226 +6067,226 @@
         <v>1.612142</v>
       </c>
       <c r="M22" s="1">
-        <v>1306.830000</v>
+        <v>1306.83</v>
       </c>
       <c r="N22" s="1">
-        <v>-203.024000</v>
+        <v>-203.024</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
         <v>5814.355493</v>
       </c>
       <c r="Q22" s="1">
-        <v>1.615099</v>
+        <v>1.6150990000000001</v>
       </c>
       <c r="R22" s="1">
-        <v>1318.140000</v>
+        <v>1318.14</v>
       </c>
       <c r="S22" s="1">
-        <v>-184.620000</v>
+        <v>-184.62</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>5824.443623</v>
+        <v>5824.4436230000001</v>
       </c>
       <c r="V22" s="1">
         <v>1.617901</v>
       </c>
       <c r="W22" s="1">
-        <v>1330.970000</v>
+        <v>1330.97</v>
       </c>
       <c r="X22" s="1">
-        <v>-170.993000</v>
+        <v>-170.99299999999999</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>5834.985096</v>
+        <v>5834.9850960000003</v>
       </c>
       <c r="AA22" s="1">
-        <v>1.620829</v>
+        <v>1.6208290000000001</v>
       </c>
       <c r="AB22" s="1">
-        <v>1348.020000</v>
+        <v>1348.02</v>
       </c>
       <c r="AC22" s="1">
-        <v>-169.172000</v>
+        <v>-169.172</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>5845.468071</v>
+        <v>5845.4680710000002</v>
       </c>
       <c r="AF22" s="1">
-        <v>1.623741</v>
+        <v>1.6237410000000001</v>
       </c>
       <c r="AG22" s="1">
-        <v>1360.850000</v>
+        <v>1360.85</v>
       </c>
       <c r="AH22" s="1">
-        <v>-178.965000</v>
+        <v>-178.965</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>5856.279879</v>
+        <v>5856.2798789999997</v>
       </c>
       <c r="AK22" s="1">
         <v>1.626744</v>
       </c>
       <c r="AL22" s="1">
-        <v>1381.350000</v>
+        <v>1381.35</v>
       </c>
       <c r="AM22" s="1">
-        <v>-209.278000</v>
+        <v>-209.27799999999999</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>5867.221086</v>
+        <v>5867.2210859999996</v>
       </c>
       <c r="AP22" s="1">
-        <v>1.629784</v>
+        <v>1.6297839999999999</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1402.780000</v>
+        <v>1402.78</v>
       </c>
       <c r="AR22" s="1">
-        <v>-253.586000</v>
+        <v>-253.58600000000001</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>5878.759519</v>
+        <v>5878.7595190000002</v>
       </c>
       <c r="AU22" s="1">
         <v>1.632989</v>
       </c>
       <c r="AV22" s="1">
-        <v>1427.180000</v>
+        <v>1427.18</v>
       </c>
       <c r="AW22" s="1">
-        <v>-314.115000</v>
+        <v>-314.11500000000001</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>5889.800496</v>
+        <v>5889.8004959999998</v>
       </c>
       <c r="AZ22" s="1">
         <v>1.636056</v>
       </c>
       <c r="BA22" s="1">
-        <v>1446.300000</v>
+        <v>1446.3</v>
       </c>
       <c r="BB22" s="1">
-        <v>-366.757000</v>
+        <v>-366.75700000000001</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>5900.827538</v>
+        <v>5900.8275379999995</v>
       </c>
       <c r="BE22" s="1">
         <v>1.639119</v>
       </c>
       <c r="BF22" s="1">
-        <v>1530.510000</v>
+        <v>1530.51</v>
       </c>
       <c r="BG22" s="1">
-        <v>-618.219000</v>
+        <v>-618.21900000000005</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>5911.497459</v>
+        <v>5911.4974590000002</v>
       </c>
       <c r="BJ22" s="1">
         <v>1.642083</v>
       </c>
       <c r="BK22" s="1">
-        <v>1682.900000</v>
+        <v>1682.9</v>
       </c>
       <c r="BL22" s="1">
-        <v>-1071.000000</v>
+        <v>-1071</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>5921.735388</v>
+        <v>5921.7353880000001</v>
       </c>
       <c r="BO22" s="1">
-        <v>1.644926</v>
+        <v>1.6449260000000001</v>
       </c>
       <c r="BP22" s="1">
-        <v>1975.140000</v>
+        <v>1975.14</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-1859.060000</v>
+        <v>-1859.06</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>5932.697463</v>
+        <v>5932.6974630000004</v>
       </c>
       <c r="BT22" s="1">
         <v>1.647972</v>
       </c>
       <c r="BU22" s="1">
-        <v>2362.710000</v>
+        <v>2362.71</v>
       </c>
       <c r="BV22" s="1">
-        <v>-2770.330000</v>
+        <v>-2770.33</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>5943.225545</v>
+        <v>5943.2255450000002</v>
       </c>
       <c r="BY22" s="1">
-        <v>1.650896</v>
+        <v>1.6508959999999999</v>
       </c>
       <c r="BZ22" s="1">
-        <v>2847.720000</v>
+        <v>2847.72</v>
       </c>
       <c r="CA22" s="1">
-        <v>-3772.940000</v>
+        <v>-3772.94</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>5956.149304</v>
+        <v>5956.1493039999996</v>
       </c>
       <c r="CD22" s="1">
-        <v>1.654486</v>
+        <v>1.6544859999999999</v>
       </c>
       <c r="CE22" s="1">
-        <v>4297.960000</v>
+        <v>4297.96</v>
       </c>
       <c r="CF22" s="1">
-        <v>-6201.000000</v>
+        <v>-6201</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
         <v>5783.460685</v>
       </c>
@@ -5878,103 +6294,103 @@
         <v>1.606517</v>
       </c>
       <c r="C23" s="1">
-        <v>1246.640000</v>
+        <v>1246.6400000000001</v>
       </c>
       <c r="D23" s="1">
-        <v>-308.133000</v>
+        <v>-308.13299999999998</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>5793.670863</v>
+        <v>5793.6708630000003</v>
       </c>
       <c r="G23" s="1">
         <v>1.609353</v>
       </c>
       <c r="H23" s="1">
-        <v>1271.350000</v>
+        <v>1271.3499999999999</v>
       </c>
       <c r="I23" s="1">
-        <v>-266.001000</v>
+        <v>-266.00099999999998</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>5804.134434</v>
+        <v>5804.1344339999996</v>
       </c>
       <c r="L23" s="1">
-        <v>1.612260</v>
+        <v>1.61226</v>
       </c>
       <c r="M23" s="1">
-        <v>1306.860000</v>
+        <v>1306.8599999999999</v>
       </c>
       <c r="N23" s="1">
-        <v>-202.389000</v>
+        <v>-202.38900000000001</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>5814.656596</v>
+        <v>5814.6565959999998</v>
       </c>
       <c r="Q23" s="1">
-        <v>1.615182</v>
+        <v>1.6151819999999999</v>
       </c>
       <c r="R23" s="1">
-        <v>1318.160000</v>
+        <v>1318.16</v>
       </c>
       <c r="S23" s="1">
-        <v>-184.604000</v>
+        <v>-184.60400000000001</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>5824.788343</v>
+        <v>5824.7883430000002</v>
       </c>
       <c r="V23" s="1">
-        <v>1.617997</v>
+        <v>1.6179969999999999</v>
       </c>
       <c r="W23" s="1">
-        <v>1330.990000</v>
+        <v>1330.99</v>
       </c>
       <c r="X23" s="1">
-        <v>-171.179000</v>
+        <v>-171.179</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>5835.333288</v>
+        <v>5835.3332879999998</v>
       </c>
       <c r="AA23" s="1">
-        <v>1.620926</v>
+        <v>1.6209260000000001</v>
       </c>
       <c r="AB23" s="1">
-        <v>1347.930000</v>
+        <v>1347.93</v>
       </c>
       <c r="AC23" s="1">
-        <v>-169.105000</v>
+        <v>-169.10499999999999</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>5845.814012</v>
+        <v>5845.8140119999998</v>
       </c>
       <c r="AF23" s="1">
         <v>1.623837</v>
       </c>
       <c r="AG23" s="1">
-        <v>1360.830000</v>
+        <v>1360.83</v>
       </c>
       <c r="AH23" s="1">
-        <v>-179.003000</v>
+        <v>-179.00299999999999</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
         <v>5856.976748</v>
@@ -5983,255 +6399,255 @@
         <v>1.626938</v>
       </c>
       <c r="AL23" s="1">
-        <v>1381.380000</v>
+        <v>1381.38</v>
       </c>
       <c r="AM23" s="1">
-        <v>-209.330000</v>
+        <v>-209.33</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>5867.942269</v>
+        <v>5867.9422690000001</v>
       </c>
       <c r="AP23" s="1">
-        <v>1.629984</v>
+        <v>1.6299840000000001</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1402.820000</v>
+        <v>1402.82</v>
       </c>
       <c r="AR23" s="1">
-        <v>-253.573000</v>
+        <v>-253.57300000000001</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>5879.142462</v>
+        <v>5879.1424619999998</v>
       </c>
       <c r="AU23" s="1">
         <v>1.633095</v>
       </c>
       <c r="AV23" s="1">
-        <v>1427.170000</v>
+        <v>1427.17</v>
       </c>
       <c r="AW23" s="1">
-        <v>-314.124000</v>
+        <v>-314.12400000000002</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>5890.163040</v>
+        <v>5890.1630400000004</v>
       </c>
       <c r="AZ23" s="1">
-        <v>1.636156</v>
+        <v>1.6361559999999999</v>
       </c>
       <c r="BA23" s="1">
-        <v>1446.320000</v>
+        <v>1446.32</v>
       </c>
       <c r="BB23" s="1">
-        <v>-366.739000</v>
+        <v>-366.73899999999998</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>5901.188609</v>
+        <v>5901.1886089999998</v>
       </c>
       <c r="BE23" s="1">
         <v>1.639219</v>
       </c>
       <c r="BF23" s="1">
-        <v>1530.500000</v>
+        <v>1530.5</v>
       </c>
       <c r="BG23" s="1">
-        <v>-618.233000</v>
+        <v>-618.23299999999995</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>5912.170531</v>
+        <v>5912.1705309999998</v>
       </c>
       <c r="BJ23" s="1">
-        <v>1.642270</v>
+        <v>1.6422699999999999</v>
       </c>
       <c r="BK23" s="1">
-        <v>1682.870000</v>
+        <v>1682.87</v>
       </c>
       <c r="BL23" s="1">
-        <v>-1070.920000</v>
+        <v>-1070.92</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>5922.172358</v>
+        <v>5922.1723579999998</v>
       </c>
       <c r="BO23" s="1">
-        <v>1.645048</v>
+        <v>1.6450480000000001</v>
       </c>
       <c r="BP23" s="1">
-        <v>1975.180000</v>
+        <v>1975.18</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-1859.200000</v>
+        <v>-1859.2</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
         <v>5932.820471</v>
       </c>
       <c r="BT23" s="1">
-        <v>1.648006</v>
+        <v>1.6480060000000001</v>
       </c>
       <c r="BU23" s="1">
-        <v>2362.940000</v>
+        <v>2362.94</v>
       </c>
       <c r="BV23" s="1">
-        <v>-2770.150000</v>
+        <v>-2770.15</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
         <v>5943.673965</v>
       </c>
       <c r="BY23" s="1">
-        <v>1.651021</v>
+        <v>1.6510210000000001</v>
       </c>
       <c r="BZ23" s="1">
-        <v>2848.380000</v>
+        <v>2848.38</v>
       </c>
       <c r="CA23" s="1">
-        <v>-3773.590000</v>
+        <v>-3773.59</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>5956.668647</v>
+        <v>5956.6686470000004</v>
       </c>
       <c r="CD23" s="1">
-        <v>1.654630</v>
+        <v>1.65463</v>
       </c>
       <c r="CE23" s="1">
-        <v>4287.380000</v>
+        <v>4287.38</v>
       </c>
       <c r="CF23" s="1">
-        <v>-6185.350000</v>
+        <v>-6185.35</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>5783.881320</v>
+        <v>5783.8813200000004</v>
       </c>
       <c r="B24" s="1">
-        <v>1.606634</v>
+        <v>1.6066339999999999</v>
       </c>
       <c r="C24" s="1">
-        <v>1246.430000</v>
+        <v>1246.43</v>
       </c>
       <c r="D24" s="1">
-        <v>-307.721000</v>
+        <v>-307.721</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>5793.949119</v>
+        <v>5793.9491189999999</v>
       </c>
       <c r="G24" s="1">
-        <v>1.609430</v>
+        <v>1.6094299999999999</v>
       </c>
       <c r="H24" s="1">
-        <v>1271.770000</v>
+        <v>1271.77</v>
       </c>
       <c r="I24" s="1">
-        <v>-265.227000</v>
+        <v>-265.22699999999998</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
         <v>5804.425585</v>
       </c>
       <c r="L24" s="1">
-        <v>1.612340</v>
+        <v>1.6123400000000001</v>
       </c>
       <c r="M24" s="1">
-        <v>1306.190000</v>
+        <v>1306.19</v>
       </c>
       <c r="N24" s="1">
-        <v>-202.367000</v>
+        <v>-202.36699999999999</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
         <v>5815.004261</v>
       </c>
       <c r="Q24" s="1">
-        <v>1.615279</v>
+        <v>1.6152789999999999</v>
       </c>
       <c r="R24" s="1">
-        <v>1318.010000</v>
+        <v>1318.01</v>
       </c>
       <c r="S24" s="1">
-        <v>-184.607000</v>
+        <v>-184.607</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>5825.129590</v>
+        <v>5825.1295899999996</v>
       </c>
       <c r="V24" s="1">
-        <v>1.618092</v>
+        <v>1.6180920000000001</v>
       </c>
       <c r="W24" s="1">
-        <v>1330.960000</v>
+        <v>1330.96</v>
       </c>
       <c r="X24" s="1">
-        <v>-170.901000</v>
+        <v>-170.90100000000001</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>5835.680984</v>
+        <v>5835.6809839999996</v>
       </c>
       <c r="AA24" s="1">
         <v>1.621022</v>
       </c>
       <c r="AB24" s="1">
-        <v>1347.980000</v>
+        <v>1347.98</v>
       </c>
       <c r="AC24" s="1">
-        <v>-169.077000</v>
+        <v>-169.077</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>5846.499721</v>
+        <v>5846.4997210000001</v>
       </c>
       <c r="AF24" s="1">
         <v>1.624028</v>
       </c>
       <c r="AG24" s="1">
-        <v>1360.830000</v>
+        <v>1360.83</v>
       </c>
       <c r="AH24" s="1">
-        <v>-178.972000</v>
+        <v>-178.97200000000001</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
         <v>5857.326924</v>
@@ -6240,240 +6656,240 @@
         <v>1.627035</v>
       </c>
       <c r="AL24" s="1">
-        <v>1381.330000</v>
+        <v>1381.33</v>
       </c>
       <c r="AM24" s="1">
-        <v>-209.251000</v>
+        <v>-209.251</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
         <v>5868.331134</v>
       </c>
       <c r="AP24" s="1">
-        <v>1.630092</v>
+        <v>1.6300920000000001</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1402.820000</v>
+        <v>1402.82</v>
       </c>
       <c r="AR24" s="1">
-        <v>-253.521000</v>
+        <v>-253.52099999999999</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>5879.506989</v>
+        <v>5879.5069890000004</v>
       </c>
       <c r="AU24" s="1">
-        <v>1.633196</v>
+        <v>1.6331960000000001</v>
       </c>
       <c r="AV24" s="1">
-        <v>1427.190000</v>
+        <v>1427.19</v>
       </c>
       <c r="AW24" s="1">
-        <v>-314.132000</v>
+        <v>-314.13200000000001</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>5890.828699</v>
+        <v>5890.8286989999997</v>
       </c>
       <c r="AZ24" s="1">
         <v>1.636341</v>
       </c>
       <c r="BA24" s="1">
-        <v>1446.340000</v>
+        <v>1446.34</v>
       </c>
       <c r="BB24" s="1">
-        <v>-366.755000</v>
+        <v>-366.755</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>5901.854769</v>
+        <v>5901.8547689999996</v>
       </c>
       <c r="BE24" s="1">
-        <v>1.639404</v>
+        <v>1.6394040000000001</v>
       </c>
       <c r="BF24" s="1">
-        <v>1530.490000</v>
+        <v>1530.49</v>
       </c>
       <c r="BG24" s="1">
-        <v>-618.209000</v>
+        <v>-618.20899999999995</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>5912.280642</v>
+        <v>5912.2806419999997</v>
       </c>
       <c r="BJ24" s="1">
-        <v>1.642300</v>
+        <v>1.6423000000000001</v>
       </c>
       <c r="BK24" s="1">
-        <v>1682.920000</v>
+        <v>1682.92</v>
       </c>
       <c r="BL24" s="1">
-        <v>-1070.940000</v>
+        <v>-1070.94</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>5922.550310</v>
+        <v>5922.5503099999996</v>
       </c>
       <c r="BO24" s="1">
-        <v>1.645153</v>
+        <v>1.6451530000000001</v>
       </c>
       <c r="BP24" s="1">
-        <v>1975.150000</v>
+        <v>1975.15</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-1859.170000</v>
+        <v>-1859.17</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>5933.232678</v>
+        <v>5933.2326780000003</v>
       </c>
       <c r="BT24" s="1">
-        <v>1.648120</v>
+        <v>1.64812</v>
       </c>
       <c r="BU24" s="1">
-        <v>2363.100000</v>
+        <v>2363.1</v>
       </c>
       <c r="BV24" s="1">
-        <v>-2770.210000</v>
+        <v>-2770.21</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>5944.103005</v>
+        <v>5944.1030049999999</v>
       </c>
       <c r="BY24" s="1">
-        <v>1.651140</v>
+        <v>1.6511400000000001</v>
       </c>
       <c r="BZ24" s="1">
-        <v>2847.890000</v>
+        <v>2847.89</v>
       </c>
       <c r="CA24" s="1">
-        <v>-3773.080000</v>
+        <v>-3773.08</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>5957.184978</v>
+        <v>5957.1849780000002</v>
       </c>
       <c r="CD24" s="1">
         <v>1.654774</v>
       </c>
       <c r="CE24" s="1">
-        <v>4294.230000</v>
+        <v>4294.2299999999996</v>
       </c>
       <c r="CF24" s="1">
-        <v>-6195.120000</v>
+        <v>-6195.12</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>5784.159580</v>
+        <v>5784.1595799999996</v>
       </c>
       <c r="B25" s="1">
         <v>1.606711</v>
       </c>
       <c r="C25" s="1">
-        <v>1246.790000</v>
+        <v>1246.79</v>
       </c>
       <c r="D25" s="1">
-        <v>-307.642000</v>
+        <v>-307.642</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>5794.295294</v>
+        <v>5794.2952939999996</v>
       </c>
       <c r="G25" s="1">
         <v>1.609526</v>
       </c>
       <c r="H25" s="1">
-        <v>1270.960000</v>
+        <v>1270.96</v>
       </c>
       <c r="I25" s="1">
-        <v>-264.950000</v>
+        <v>-264.95</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>5804.770800</v>
+        <v>5804.7708000000002</v>
       </c>
       <c r="L25" s="1">
         <v>1.612436</v>
       </c>
       <c r="M25" s="1">
-        <v>1306.740000</v>
+        <v>1306.74</v>
       </c>
       <c r="N25" s="1">
-        <v>-203.107000</v>
+        <v>-203.107</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>5815.350962</v>
+        <v>5815.3509620000004</v>
       </c>
       <c r="Q25" s="1">
         <v>1.615375</v>
       </c>
       <c r="R25" s="1">
-        <v>1318.100000</v>
+        <v>1318.1</v>
       </c>
       <c r="S25" s="1">
-        <v>-184.451000</v>
+        <v>-184.45099999999999</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>5825.818556</v>
+        <v>5825.8185560000002</v>
       </c>
       <c r="V25" s="1">
-        <v>1.618283</v>
+        <v>1.6182829999999999</v>
       </c>
       <c r="W25" s="1">
-        <v>1331.020000</v>
+        <v>1331.02</v>
       </c>
       <c r="X25" s="1">
-        <v>-171.099000</v>
+        <v>-171.09899999999999</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>5836.380342</v>
+        <v>5836.3803420000004</v>
       </c>
       <c r="AA25" s="1">
-        <v>1.621217</v>
+        <v>1.6212169999999999</v>
       </c>
       <c r="AB25" s="1">
-        <v>1348.010000</v>
+        <v>1348.01</v>
       </c>
       <c r="AC25" s="1">
-        <v>-169.159000</v>
+        <v>-169.15899999999999</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
         <v>5846.843449</v>
@@ -6482,422 +6898,423 @@
         <v>1.624123</v>
       </c>
       <c r="AG25" s="1">
-        <v>1360.820000</v>
+        <v>1360.82</v>
       </c>
       <c r="AH25" s="1">
-        <v>-179.043000</v>
+        <v>-179.04300000000001</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>5857.677564</v>
+        <v>5857.6775639999996</v>
       </c>
       <c r="AK25" s="1">
-        <v>1.627133</v>
+        <v>1.6271329999999999</v>
       </c>
       <c r="AL25" s="1">
-        <v>1381.280000</v>
+        <v>1381.28</v>
       </c>
       <c r="AM25" s="1">
-        <v>-209.294000</v>
+        <v>-209.29400000000001</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>5868.690764</v>
+        <v>5868.6907639999999</v>
       </c>
       <c r="AP25" s="1">
-        <v>1.630192</v>
+        <v>1.6301920000000001</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1402.800000</v>
+        <v>1402.8</v>
       </c>
       <c r="AR25" s="1">
-        <v>-253.554000</v>
+        <v>-253.554</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>5880.177712</v>
+        <v>5880.1777119999997</v>
       </c>
       <c r="AU25" s="1">
         <v>1.633383</v>
       </c>
       <c r="AV25" s="1">
-        <v>1427.200000</v>
+        <v>1427.2</v>
       </c>
       <c r="AW25" s="1">
-        <v>-314.136000</v>
+        <v>-314.13600000000002</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>5891.268622</v>
+        <v>5891.2686219999996</v>
       </c>
       <c r="AZ25" s="1">
-        <v>1.636464</v>
+        <v>1.6364639999999999</v>
       </c>
       <c r="BA25" s="1">
-        <v>1446.340000</v>
+        <v>1446.34</v>
       </c>
       <c r="BB25" s="1">
-        <v>-366.757000</v>
+        <v>-366.75700000000001</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>5902.305136</v>
+        <v>5902.3051359999999</v>
       </c>
       <c r="BE25" s="1">
         <v>1.639529</v>
       </c>
       <c r="BF25" s="1">
-        <v>1530.480000</v>
+        <v>1530.48</v>
       </c>
       <c r="BG25" s="1">
-        <v>-618.263000</v>
+        <v>-618.26300000000003</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>5912.658603</v>
+        <v>5912.6586029999999</v>
       </c>
       <c r="BJ25" s="1">
-        <v>1.642405</v>
+        <v>1.6424049999999999</v>
       </c>
       <c r="BK25" s="1">
-        <v>1682.910000</v>
+        <v>1682.91</v>
       </c>
       <c r="BL25" s="1">
-        <v>-1071.050000</v>
+        <v>-1071.05</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>5922.945621</v>
+        <v>5922.9456209999998</v>
       </c>
       <c r="BO25" s="1">
-        <v>1.645263</v>
+        <v>1.6452629999999999</v>
       </c>
       <c r="BP25" s="1">
-        <v>1975.010000</v>
+        <v>1975.01</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-1859.020000</v>
+        <v>-1859.02</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>5933.663703</v>
+        <v>5933.6637030000002</v>
       </c>
       <c r="BT25" s="1">
-        <v>1.648240</v>
+        <v>1.6482399999999999</v>
       </c>
       <c r="BU25" s="1">
-        <v>2363.160000</v>
+        <v>2363.16</v>
       </c>
       <c r="BV25" s="1">
-        <v>-2770.060000</v>
+        <v>-2770.06</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>5944.524105</v>
+        <v>5944.5241050000004</v>
       </c>
       <c r="BY25" s="1">
         <v>1.651257</v>
       </c>
       <c r="BZ25" s="1">
-        <v>2847.820000</v>
+        <v>2847.82</v>
       </c>
       <c r="CA25" s="1">
-        <v>-3773.620000</v>
+        <v>-3773.62</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>5957.741990</v>
+        <v>5957.7419900000004</v>
       </c>
       <c r="CD25" s="1">
         <v>1.654928</v>
       </c>
       <c r="CE25" s="1">
-        <v>4295.710000</v>
+        <v>4295.71</v>
       </c>
       <c r="CF25" s="1">
-        <v>-6206.320000</v>
+        <v>-6206.32</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>5784.502300</v>
+        <v>5784.5023000000001</v>
       </c>
       <c r="B26" s="1">
         <v>1.606806</v>
       </c>
       <c r="C26" s="1">
-        <v>1246.640000</v>
+        <v>1246.6400000000001</v>
       </c>
       <c r="D26" s="1">
-        <v>-307.869000</v>
+        <v>-307.86900000000003</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>5794.638563</v>
+        <v>5794.6385630000004</v>
       </c>
       <c r="G26" s="1">
-        <v>1.609622</v>
+        <v>1.6096220000000001</v>
       </c>
       <c r="H26" s="1">
-        <v>1271.950000</v>
+        <v>1271.95</v>
       </c>
       <c r="I26" s="1">
-        <v>-265.435000</v>
+        <v>-265.435</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>5805.460778</v>
+        <v>5805.4607779999997</v>
       </c>
       <c r="L26" s="1">
         <v>1.612628</v>
       </c>
       <c r="M26" s="1">
-        <v>1306.610000</v>
+        <v>1306.6099999999999</v>
       </c>
       <c r="N26" s="1">
-        <v>-202.791000</v>
+        <v>-202.791</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>5816.050071</v>
+        <v>5816.0500709999997</v>
       </c>
       <c r="Q26" s="1">
         <v>1.615569</v>
       </c>
       <c r="R26" s="1">
-        <v>1318.150000</v>
+        <v>1318.15</v>
       </c>
       <c r="S26" s="1">
-        <v>-184.534000</v>
+        <v>-184.53399999999999</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>5826.159284</v>
+        <v>5826.1592840000003</v>
       </c>
       <c r="V26" s="1">
-        <v>1.618378</v>
+        <v>1.6183780000000001</v>
       </c>
       <c r="W26" s="1">
-        <v>1330.930000</v>
+        <v>1330.93</v>
       </c>
       <c r="X26" s="1">
-        <v>-171.097000</v>
+        <v>-171.09700000000001</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>5836.732502</v>
+        <v>5836.7325019999998</v>
       </c>
       <c r="AA26" s="1">
-        <v>1.621315</v>
+        <v>1.6213150000000001</v>
       </c>
       <c r="AB26" s="1">
-        <v>1347.930000</v>
+        <v>1347.93</v>
       </c>
       <c r="AC26" s="1">
-        <v>-169.132000</v>
+        <v>-169.13200000000001</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>5847.186185</v>
+        <v>5847.1861849999996</v>
       </c>
       <c r="AF26" s="1">
-        <v>1.624218</v>
+        <v>1.6242179999999999</v>
       </c>
       <c r="AG26" s="1">
-        <v>1360.850000</v>
+        <v>1360.85</v>
       </c>
       <c r="AH26" s="1">
-        <v>-179.011000</v>
+        <v>-179.011</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>5858.331786</v>
+        <v>5858.3317859999997</v>
       </c>
       <c r="AK26" s="1">
-        <v>1.627314</v>
+        <v>1.6273139999999999</v>
       </c>
       <c r="AL26" s="1">
-        <v>1381.350000</v>
+        <v>1381.35</v>
       </c>
       <c r="AM26" s="1">
-        <v>-209.261000</v>
+        <v>-209.261</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>5869.352396</v>
+        <v>5869.3523960000002</v>
       </c>
       <c r="AP26" s="1">
         <v>1.630376</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1402.820000</v>
+        <v>1402.82</v>
       </c>
       <c r="AR26" s="1">
-        <v>-253.562000</v>
+        <v>-253.56200000000001</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>5880.634397</v>
+        <v>5880.6343969999998</v>
       </c>
       <c r="AU26" s="1">
-        <v>1.633510</v>
+        <v>1.63351</v>
       </c>
       <c r="AV26" s="1">
-        <v>1427.200000</v>
+        <v>1427.2</v>
       </c>
       <c r="AW26" s="1">
-        <v>-314.136000</v>
+        <v>-314.13600000000002</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>5891.628222</v>
+        <v>5891.6282220000003</v>
       </c>
       <c r="AZ26" s="1">
         <v>1.636563</v>
       </c>
       <c r="BA26" s="1">
-        <v>1446.290000</v>
+        <v>1446.29</v>
       </c>
       <c r="BB26" s="1">
-        <v>-366.770000</v>
+        <v>-366.77</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>5902.668175</v>
+        <v>5902.6681749999998</v>
       </c>
       <c r="BE26" s="1">
-        <v>1.639630</v>
+        <v>1.6396299999999999</v>
       </c>
       <c r="BF26" s="1">
-        <v>1530.470000</v>
+        <v>1530.47</v>
       </c>
       <c r="BG26" s="1">
-        <v>-618.189000</v>
+        <v>-618.18899999999996</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>5913.032578</v>
+        <v>5913.0325780000003</v>
       </c>
       <c r="BJ26" s="1">
         <v>1.642509</v>
       </c>
       <c r="BK26" s="1">
-        <v>1682.890000</v>
+        <v>1682.89</v>
       </c>
       <c r="BL26" s="1">
-        <v>-1070.960000</v>
+        <v>-1070.96</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>5923.370725</v>
+        <v>5923.3707249999998</v>
       </c>
       <c r="BO26" s="1">
         <v>1.645381</v>
       </c>
       <c r="BP26" s="1">
-        <v>1975.040000</v>
+        <v>1975.04</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-1858.970000</v>
+        <v>-1858.97</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>5934.096181</v>
+        <v>5934.0961809999999</v>
       </c>
       <c r="BT26" s="1">
-        <v>1.648360</v>
+        <v>1.64836</v>
       </c>
       <c r="BU26" s="1">
-        <v>2363.110000</v>
+        <v>2363.11</v>
       </c>
       <c r="BV26" s="1">
-        <v>-2770.060000</v>
+        <v>-2770.06</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>5944.946690</v>
+        <v>5944.9466899999998</v>
       </c>
       <c r="BY26" s="1">
-        <v>1.651374</v>
+        <v>1.6513739999999999</v>
       </c>
       <c r="BZ26" s="1">
-        <v>2847.330000</v>
+        <v>2847.33</v>
       </c>
       <c r="CA26" s="1">
-        <v>-3773.290000</v>
+        <v>-3773.29</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>5958.271190</v>
+        <v>5958.2711900000004</v>
       </c>
       <c r="CD26" s="1">
-        <v>1.655075</v>
+        <v>1.6550750000000001</v>
       </c>
       <c r="CE26" s="1">
-        <v>4293.610000</v>
+        <v>4293.6099999999997</v>
       </c>
       <c r="CF26" s="1">
-        <v>-6188.730000</v>
+        <v>-6188.73</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>